--- a/docs/FDA_EUA tests/FDAEUAtest_pre_Ontorat.xlsx
+++ b/docs/FDA_EUA tests/FDAEUAtest_pre_Ontorat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linay\ontologies\GitHub\cido\docs\FDA_EUA tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34A6CE0-9834-4019-B84F-1A617DADF505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19486590-C0E3-4BD8-9C2F-60FE60EAA059}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CB072C4-4071-45ED-9E21-A7B6C58CD755}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5842" uniqueCount="2584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5844" uniqueCount="2583">
   <si>
     <t>Company/Organization</t>
   </si>
@@ -6790,9 +6790,6 @@
   </si>
   <si>
     <t>Upper and lower respiratory specimens (such as nasopharyngeal or oropharyngeal swabs, sputum, lower respiratory tract aspirates, bronchoalveolar lavage, and nasopharyngeal wash/aspirate or nasal aspirate)</t>
-  </si>
-  <si>
-    <t>https://www.fda.gov/media/134922/download</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CIDO_0000306</t>
@@ -8229,8 +8226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6338C626-B5C7-4274-B4C3-F95CCA523B46}">
   <dimension ref="A1:V346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K276" workbookViewId="0">
+      <selection activeCell="S305" sqref="S305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8284,16 +8281,16 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="N1" t="s">
         <v>2525</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>2526</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>2527</v>
-      </c>
-      <c r="P1" t="s">
-        <v>2528</v>
       </c>
       <c r="Q1" t="s">
         <v>12</v>
@@ -8302,7 +8299,7 @@
         <v>13</v>
       </c>
       <c r="T1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -8349,10 +8346,10 @@
         <v>1903</v>
       </c>
       <c r="M2" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N2" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="S2" t="s">
         <v>27</v>
@@ -8405,7 +8402,7 @@
         <v>1895</v>
       </c>
       <c r="M3" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S3" t="s">
         <v>38</v>
@@ -8481,7 +8478,7 @@
         <v>54</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K5" t="s">
         <v>45</v>
@@ -8531,7 +8528,7 @@
         <v>93</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K6" t="s">
         <v>94</v>
@@ -8554,16 +8551,16 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B7" t="s">
         <v>2385</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>2386</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>2387</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2388</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -8584,13 +8581,13 @@
         <v>445</v>
       </c>
       <c r="K7" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>79</v>
@@ -8634,7 +8631,7 @@
         <v>143</v>
       </c>
       <c r="J8" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K8" t="s">
         <v>144</v>
@@ -8690,13 +8687,13 @@
         <v>1487</v>
       </c>
       <c r="M9" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N9" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O9" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>1488</v>
@@ -8749,7 +8746,7 @@
         <v>1068</v>
       </c>
       <c r="M10" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S10" t="s">
         <v>103</v>
@@ -8787,7 +8784,7 @@
         <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K11" t="s">
         <v>45</v>
@@ -8934,7 +8931,7 @@
         <v>93</v>
       </c>
       <c r="J14" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K14" t="s">
         <v>94</v>
@@ -8993,13 +8990,13 @@
         <v>896</v>
       </c>
       <c r="M15" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N15" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="O15" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S15" t="s">
         <v>145</v>
@@ -9019,7 +9016,7 @@
         <v>447</v>
       </c>
       <c r="B16" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C16" t="s">
         <v>448</v>
@@ -9052,7 +9049,7 @@
         <v>452</v>
       </c>
       <c r="M16" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S16" t="s">
         <v>156</v>
@@ -9105,10 +9102,10 @@
         <v>916</v>
       </c>
       <c r="M17" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="N17" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S17" t="s">
         <v>166</v>
@@ -9161,10 +9158,10 @@
         <v>888</v>
       </c>
       <c r="M18" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N18" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S18" t="s">
         <v>174</v>
@@ -9217,10 +9214,10 @@
         <v>570</v>
       </c>
       <c r="M19" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N19" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S19" t="s">
         <v>182</v>
@@ -9273,7 +9270,7 @@
         <v>1895</v>
       </c>
       <c r="M20" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S20" t="s">
         <v>191</v>
@@ -9290,16 +9287,16 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B21" t="s">
         <v>2482</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>2483</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>2484</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2485</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -9308,7 +9305,7 @@
         <v>270</v>
       </c>
       <c r="G21" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="H21" t="s">
         <v>75</v>
@@ -9320,13 +9317,13 @@
         <v>445</v>
       </c>
       <c r="K21" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="L21" t="s">
         <v>1801</v>
       </c>
       <c r="M21" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S21" t="s">
         <v>199</v>
@@ -9379,7 +9376,7 @@
         <v>452</v>
       </c>
       <c r="M22" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S22" t="s">
         <v>206</v>
@@ -9432,13 +9429,13 @@
         <v>2089</v>
       </c>
       <c r="M23" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N23" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="O23" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="S23" t="s">
         <v>216</v>
@@ -9491,13 +9488,13 @@
         <v>593</v>
       </c>
       <c r="M24" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N24" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O24" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S24" t="s">
         <v>223</v>
@@ -9550,7 +9547,7 @@
         <v>155</v>
       </c>
       <c r="M25" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S25" t="s">
         <v>230</v>
@@ -9644,7 +9641,7 @@
         <v>236</v>
       </c>
       <c r="J27" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K27" t="s">
         <v>2130</v>
@@ -9703,7 +9700,7 @@
         <v>165</v>
       </c>
       <c r="M28" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S28" t="s">
         <v>254</v>
@@ -9756,7 +9753,7 @@
         <v>135</v>
       </c>
       <c r="M29" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S29" t="s">
         <v>264</v>
@@ -9809,7 +9806,7 @@
         <v>165</v>
       </c>
       <c r="M30" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S30" t="s">
         <v>273</v>
@@ -9862,10 +9859,10 @@
         <v>263</v>
       </c>
       <c r="M31" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N31" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S31" t="s">
         <v>280</v>
@@ -9885,13 +9882,13 @@
         <v>1302</v>
       </c>
       <c r="B32" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C32" t="s">
         <v>2358</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>2359</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2360</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
@@ -9900,7 +9897,7 @@
         <v>212</v>
       </c>
       <c r="G32" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="H32" t="s">
         <v>75</v>
@@ -9918,10 +9915,10 @@
         <v>494</v>
       </c>
       <c r="M32" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N32" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S32" t="s">
         <v>289</v>
@@ -9974,7 +9971,7 @@
         <v>26</v>
       </c>
       <c r="M33" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S33" t="s">
         <v>299</v>
@@ -10027,7 +10024,7 @@
         <v>1761</v>
       </c>
       <c r="M34" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="S34" t="s">
         <v>306</v>
@@ -10080,7 +10077,7 @@
         <v>155</v>
       </c>
       <c r="M35" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S35" t="s">
         <v>315</v>
@@ -10124,7 +10121,7 @@
         <v>236</v>
       </c>
       <c r="J36" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K36" t="s">
         <v>1351</v>
@@ -10283,7 +10280,7 @@
         <v>26</v>
       </c>
       <c r="M39" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S39" t="s">
         <v>349</v>
@@ -10336,7 +10333,7 @@
         <v>459</v>
       </c>
       <c r="M40" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S40" t="s">
         <v>357</v>
@@ -10439,10 +10436,10 @@
         <v>996</v>
       </c>
       <c r="M42" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="N42" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="S42" t="s">
         <v>375</v>
@@ -10495,7 +10492,7 @@
         <v>656</v>
       </c>
       <c r="M43" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="S43" t="s">
         <v>383</v>
@@ -10548,7 +10545,7 @@
         <v>155</v>
       </c>
       <c r="M44" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S44" t="s">
         <v>391</v>
@@ -10601,7 +10598,7 @@
         <v>459</v>
       </c>
       <c r="M45" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="T45" t="s">
         <v>398</v>
@@ -10689,7 +10686,7 @@
         <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K47" t="s">
         <v>67</v>
@@ -10739,7 +10736,7 @@
         <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K48" t="s">
         <v>67</v>
@@ -10798,7 +10795,7 @@
         <v>428</v>
       </c>
       <c r="U49" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V49" t="s">
         <v>30</v>
@@ -10833,7 +10830,7 @@
         <v>236</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K50" t="s">
         <v>397</v>
@@ -10880,7 +10877,7 @@
         <v>54</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K51" t="s">
         <v>851</v>
@@ -10930,7 +10927,7 @@
         <v>93</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K52" t="s">
         <v>851</v>
@@ -10989,7 +10986,7 @@
         <v>26</v>
       </c>
       <c r="M53" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S53" t="s">
         <v>460</v>
@@ -11042,7 +11039,7 @@
         <v>26</v>
       </c>
       <c r="M54" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S54" t="s">
         <v>466</v>
@@ -11095,7 +11092,7 @@
         <v>1786</v>
       </c>
       <c r="M55" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S55" t="s">
         <v>473</v>
@@ -11148,7 +11145,7 @@
         <v>2219</v>
       </c>
       <c r="M56" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S56" s="2" t="s">
         <v>480</v>
@@ -11251,10 +11248,10 @@
         <v>859</v>
       </c>
       <c r="M58" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="N58" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="S58" t="s">
         <v>495</v>
@@ -11307,7 +11304,7 @@
         <v>459</v>
       </c>
       <c r="M59" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S59" t="s">
         <v>500</v>
@@ -11351,7 +11348,7 @@
         <v>236</v>
       </c>
       <c r="J60" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K60" t="s">
         <v>1583</v>
@@ -11410,10 +11407,10 @@
         <v>1136</v>
       </c>
       <c r="M61" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N61" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S61" t="s">
         <v>514</v>
@@ -11466,7 +11463,7 @@
         <v>155</v>
       </c>
       <c r="M62" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="T62" t="s">
         <v>445</v>
@@ -11516,7 +11513,7 @@
         <v>26</v>
       </c>
       <c r="M63" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="T63" t="s">
         <v>519</v>
@@ -11566,7 +11563,7 @@
         <v>459</v>
       </c>
       <c r="M64" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S64" t="s">
         <v>527</v>
@@ -11619,7 +11616,7 @@
         <v>165</v>
       </c>
       <c r="M65" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S65" t="s">
         <v>535</v>
@@ -11663,7 +11660,7 @@
         <v>236</v>
       </c>
       <c r="J66" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K66" t="s">
         <v>144</v>
@@ -11722,7 +11719,7 @@
         <v>155</v>
       </c>
       <c r="M67" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S67" t="s">
         <v>549</v>
@@ -11775,13 +11772,13 @@
         <v>1054</v>
       </c>
       <c r="M68" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N68" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="O68" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S68" t="s">
         <v>556</v>
@@ -11825,7 +11822,7 @@
         <v>12</v>
       </c>
       <c r="J69" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K69" t="s">
         <v>37</v>
@@ -11875,7 +11872,7 @@
         <v>236</v>
       </c>
       <c r="J70" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K70" t="s">
         <v>144</v>
@@ -11934,10 +11931,10 @@
         <v>1409</v>
       </c>
       <c r="M71" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N71" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S71" t="s">
         <v>579</v>
@@ -11990,7 +11987,7 @@
         <v>26</v>
       </c>
       <c r="M72" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S72" t="s">
         <v>587</v>
@@ -12007,16 +12004,16 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B73" t="s">
         <v>2310</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>2311</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>2312</v>
-      </c>
-      <c r="D73" t="s">
-        <v>2313</v>
       </c>
       <c r="E73" t="s">
         <v>151</v>
@@ -12025,7 +12022,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="H73" t="s">
         <v>75</v>
@@ -12037,13 +12034,13 @@
         <v>445</v>
       </c>
       <c r="K73" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="L73" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="M73" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="S73" t="s">
         <v>594</v>
@@ -12096,10 +12093,10 @@
         <v>1191</v>
       </c>
       <c r="M74" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="N74" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S74" t="s">
         <v>601</v>
@@ -12152,7 +12149,7 @@
         <v>155</v>
       </c>
       <c r="M75" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S75" t="s">
         <v>607</v>
@@ -12169,16 +12166,16 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B76" t="s">
         <v>2332</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>2333</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>2334</v>
-      </c>
-      <c r="D76" t="s">
-        <v>2335</v>
       </c>
       <c r="E76" t="s">
         <v>151</v>
@@ -12199,16 +12196,16 @@
         <v>445</v>
       </c>
       <c r="K76" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="L76" t="s">
         <v>2151</v>
       </c>
       <c r="M76" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="S76" t="s">
         <v>614</v>
@@ -12225,16 +12222,16 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B77" t="s">
         <v>2245</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>2246</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>2247</v>
-      </c>
-      <c r="D77" t="s">
-        <v>2248</v>
       </c>
       <c r="E77" t="s">
         <v>151</v>
@@ -12243,7 +12240,7 @@
         <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="H77" t="s">
         <v>75</v>
@@ -12255,13 +12252,13 @@
         <v>445</v>
       </c>
       <c r="K77" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="L77" t="s">
         <v>472</v>
       </c>
       <c r="M77" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S77" t="s">
         <v>621</v>
@@ -12314,7 +12311,7 @@
         <v>165</v>
       </c>
       <c r="M78" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S78" t="s">
         <v>628</v>
@@ -12358,7 +12355,7 @@
         <v>65</v>
       </c>
       <c r="J79" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="K79" t="s">
         <v>313</v>
@@ -12367,7 +12364,7 @@
         <v>314</v>
       </c>
       <c r="M79" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S79" t="s">
         <v>635</v>
@@ -12420,10 +12417,10 @@
         <v>1191</v>
       </c>
       <c r="M80" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="N80" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S80" t="s">
         <v>642</v>
@@ -12476,13 +12473,13 @@
         <v>649</v>
       </c>
       <c r="M81" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N81" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="O81" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S81" t="s">
         <v>650</v>
@@ -12520,7 +12517,7 @@
         <v>12</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="K82" t="s">
         <v>534</v>
@@ -12543,16 +12540,16 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B83" t="s">
         <v>2466</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>2467</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>2468</v>
-      </c>
-      <c r="D83" t="s">
-        <v>2469</v>
       </c>
       <c r="E83" t="s">
         <v>20</v>
@@ -12561,7 +12558,7 @@
         <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="H83" t="s">
         <v>75</v>
@@ -12573,13 +12570,13 @@
         <v>445</v>
       </c>
       <c r="K83" t="s">
+        <v>2470</v>
+      </c>
+      <c r="L83" t="s">
         <v>2471</v>
       </c>
-      <c r="L83" t="s">
-        <v>2472</v>
-      </c>
       <c r="M83" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S83" t="s">
         <v>664</v>
@@ -12632,10 +12629,10 @@
         <v>1042</v>
       </c>
       <c r="M84" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="N84" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="S84" t="s">
         <v>671</v>
@@ -12688,10 +12685,10 @@
         <v>348</v>
       </c>
       <c r="M85" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N85" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S85" t="s">
         <v>679</v>
@@ -12738,7 +12735,7 @@
         <v>686</v>
       </c>
       <c r="U86" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V86" t="s">
         <v>30</v>
@@ -12785,7 +12782,7 @@
         <v>695</v>
       </c>
       <c r="U87" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V87" t="s">
         <v>30</v>
@@ -12829,7 +12826,7 @@
         <v>1801</v>
       </c>
       <c r="M88" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S88" t="s">
         <v>701</v>
@@ -12882,16 +12879,16 @@
         <v>541</v>
       </c>
       <c r="M89" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N89" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="O89" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="P89" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="S89" t="s">
         <v>709</v>
@@ -12944,7 +12941,7 @@
         <v>165</v>
       </c>
       <c r="M90" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S90" t="s">
         <v>716</v>
@@ -12997,13 +12994,13 @@
         <v>1487</v>
       </c>
       <c r="M91" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N91" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O91" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S91" t="s">
         <v>723</v>
@@ -13020,16 +13017,16 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B92" t="s">
         <v>2338</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>2339</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>2340</v>
-      </c>
-      <c r="D92" t="s">
-        <v>2341</v>
       </c>
       <c r="E92" t="s">
         <v>151</v>
@@ -13050,13 +13047,13 @@
         <v>445</v>
       </c>
       <c r="K92" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="L92" t="s">
         <v>26</v>
       </c>
       <c r="M92" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S92" t="s">
         <v>728</v>
@@ -13109,10 +13106,10 @@
         <v>1576</v>
       </c>
       <c r="M93" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="N93" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S93" t="s">
         <v>734</v>
@@ -13129,16 +13126,16 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B94" t="s">
         <v>2392</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>2393</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>2394</v>
-      </c>
-      <c r="D94" t="s">
-        <v>2395</v>
       </c>
       <c r="E94" t="s">
         <v>151</v>
@@ -13147,7 +13144,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="H94" t="s">
         <v>53</v>
@@ -13162,7 +13159,7 @@
         <v>2051</v>
       </c>
       <c r="Q94" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="S94" t="s">
         <v>742</v>
@@ -13256,7 +13253,7 @@
         <v>1866</v>
       </c>
       <c r="J96" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K96" t="s">
         <v>1886</v>
@@ -13315,7 +13312,7 @@
         <v>443</v>
       </c>
       <c r="M97" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="S97" t="s">
         <v>763</v>
@@ -13368,10 +13365,10 @@
         <v>263</v>
       </c>
       <c r="M98" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N98" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S98" t="s">
         <v>771</v>
@@ -13424,10 +13421,10 @@
         <v>1459</v>
       </c>
       <c r="M99" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N99" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S99" t="s">
         <v>778</v>
@@ -13447,7 +13444,7 @@
         <v>496</v>
       </c>
       <c r="B100" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C100" t="s">
         <v>497</v>
@@ -13480,7 +13477,7 @@
         <v>459</v>
       </c>
       <c r="M100" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S100" t="s">
         <v>784</v>
@@ -13500,13 +13497,13 @@
         <v>168</v>
       </c>
       <c r="B101" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="C101" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D101" t="s">
         <v>2352</v>
-      </c>
-      <c r="D101" t="s">
-        <v>2353</v>
       </c>
       <c r="E101" t="s">
         <v>151</v>
@@ -13515,7 +13512,7 @@
         <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="H101" t="s">
         <v>75</v>
@@ -13527,13 +13524,13 @@
         <v>445</v>
       </c>
       <c r="K101" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="L101" t="s">
         <v>459</v>
       </c>
       <c r="M101" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S101" t="s">
         <v>791</v>
@@ -13636,13 +13633,13 @@
         <v>593</v>
       </c>
       <c r="M103" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N103" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O103" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S103" t="s">
         <v>808</v>
@@ -13745,7 +13742,7 @@
         <v>1239</v>
       </c>
       <c r="M105" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S105" t="s">
         <v>823</v>
@@ -13798,7 +13795,7 @@
         <v>1387</v>
       </c>
       <c r="M106" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S106" t="s">
         <v>829</v>
@@ -13851,7 +13848,7 @@
         <v>155</v>
       </c>
       <c r="M107" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S107" t="s">
         <v>838</v>
@@ -13904,7 +13901,7 @@
         <v>459</v>
       </c>
       <c r="M108" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S108" t="s">
         <v>846</v>
@@ -13957,7 +13954,7 @@
         <v>26</v>
       </c>
       <c r="M109" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S109" t="s">
         <v>852</v>
@@ -14010,7 +14007,7 @@
         <v>26</v>
       </c>
       <c r="M110" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S110" t="s">
         <v>860</v>
@@ -14027,16 +14024,16 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B111" t="s">
         <v>2345</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>2346</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>2347</v>
-      </c>
-      <c r="D111" t="s">
-        <v>2348</v>
       </c>
       <c r="E111" t="s">
         <v>151</v>
@@ -14045,7 +14042,7 @@
         <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="H111" t="s">
         <v>75</v>
@@ -14057,13 +14054,13 @@
         <v>445</v>
       </c>
       <c r="K111" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="L111" t="s">
         <v>459</v>
       </c>
       <c r="M111" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S111" t="s">
         <v>868</v>
@@ -14116,13 +14113,13 @@
         <v>1054</v>
       </c>
       <c r="M112" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N112" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="O112" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S112" t="s">
         <v>873</v>
@@ -14175,10 +14172,10 @@
         <v>1036</v>
       </c>
       <c r="M113" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N113" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="S113" t="s">
         <v>881</v>
@@ -14231,7 +14228,7 @@
         <v>1879</v>
       </c>
       <c r="M114" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S114" t="s">
         <v>889</v>
@@ -14275,7 +14272,7 @@
         <v>93</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K115" t="s">
         <v>45</v>
@@ -14301,7 +14298,7 @@
         <v>474</v>
       </c>
       <c r="B116" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="C116" t="s">
         <v>475</v>
@@ -14425,7 +14422,7 @@
         <v>93</v>
       </c>
       <c r="J118" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K118" t="s">
         <v>404</v>
@@ -14472,7 +14469,7 @@
         <v>54</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K119" t="s">
         <v>45</v>
@@ -14572,7 +14569,7 @@
         <v>54</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K121" t="s">
         <v>45</v>
@@ -14681,10 +14678,10 @@
         <v>1516</v>
       </c>
       <c r="M123" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N123" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S123" t="s">
         <v>948</v>
@@ -14737,7 +14734,7 @@
         <v>26</v>
       </c>
       <c r="M124" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S124" t="s">
         <v>954</v>
@@ -14790,13 +14787,13 @@
         <v>762</v>
       </c>
       <c r="M125" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N125" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="O125" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S125" t="s">
         <v>958</v>
@@ -14849,13 +14846,13 @@
         <v>1054</v>
       </c>
       <c r="M126" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N126" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="O126" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S126" t="s">
         <v>965</v>
@@ -14949,7 +14946,7 @@
         <v>198</v>
       </c>
       <c r="J128" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="K128" t="s">
         <v>45</v>
@@ -15049,7 +15046,7 @@
         <v>12</v>
       </c>
       <c r="J130" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K130" t="s">
         <v>25</v>
@@ -15111,7 +15108,7 @@
         <v>1005</v>
       </c>
       <c r="U131" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V131" t="s">
         <v>30</v>
@@ -15155,7 +15152,7 @@
         <v>837</v>
       </c>
       <c r="M132" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S132" t="s">
         <v>1010</v>
@@ -15175,13 +15172,13 @@
         <v>831</v>
       </c>
       <c r="B133" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C133" t="s">
         <v>2290</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>2291</v>
-      </c>
-      <c r="D133" t="s">
-        <v>2292</v>
       </c>
       <c r="E133" t="s">
         <v>20</v>
@@ -15190,7 +15187,7 @@
         <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="H133" t="s">
         <v>75</v>
@@ -15258,10 +15255,10 @@
         <v>799</v>
       </c>
       <c r="M134" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N134" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S134" t="s">
         <v>1023</v>
@@ -15314,10 +15311,10 @@
         <v>263</v>
       </c>
       <c r="M135" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N135" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S135" t="s">
         <v>1029</v>
@@ -15373,7 +15370,7 @@
         <v>1038</v>
       </c>
       <c r="U136" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V136" t="s">
         <v>30</v>
@@ -15417,7 +15414,7 @@
         <v>1044</v>
       </c>
       <c r="U137" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V137" t="s">
         <v>30</v>
@@ -15428,7 +15425,7 @@
         <v>467</v>
       </c>
       <c r="B138" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="C138" t="s">
         <v>468</v>
@@ -15461,7 +15458,7 @@
         <v>472</v>
       </c>
       <c r="M138" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S138" t="s">
         <v>1048</v>
@@ -15514,7 +15511,7 @@
         <v>459</v>
       </c>
       <c r="M139" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S139" t="s">
         <v>1055</v>
@@ -15567,7 +15564,7 @@
         <v>452</v>
       </c>
       <c r="M140" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S140" t="s">
         <v>1062</v>
@@ -15620,13 +15617,13 @@
         <v>1664</v>
       </c>
       <c r="M141" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N141" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O141" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="S141" t="s">
         <v>1069</v>
@@ -15679,10 +15676,10 @@
         <v>693</v>
       </c>
       <c r="M142" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N142" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S142" t="s">
         <v>1075</v>
@@ -15735,10 +15732,10 @@
         <v>1508</v>
       </c>
       <c r="M143" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N143" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S143" t="s">
         <v>1084</v>
@@ -15755,16 +15752,16 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B144" t="s">
         <v>2282</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>2283</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>2284</v>
-      </c>
-      <c r="D144" t="s">
-        <v>2285</v>
       </c>
       <c r="E144" t="s">
         <v>20</v>
@@ -15773,7 +15770,7 @@
         <v>188</v>
       </c>
       <c r="G144" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="H144" t="s">
         <v>75</v>
@@ -15785,13 +15782,13 @@
         <v>445</v>
       </c>
       <c r="K144" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L144" t="s">
         <v>1801</v>
       </c>
       <c r="M144" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S144" t="s">
         <v>1088</v>
@@ -15835,7 +15832,7 @@
         <v>236</v>
       </c>
       <c r="J145" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="K145" t="s">
         <v>272</v>
@@ -15894,7 +15891,7 @@
         <v>1095</v>
       </c>
       <c r="M146" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S146" t="s">
         <v>1103</v>
@@ -15947,7 +15944,7 @@
         <v>1879</v>
       </c>
       <c r="M147" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S147" t="s">
         <v>1109</v>
@@ -16000,7 +15997,7 @@
         <v>26</v>
       </c>
       <c r="M148" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S148" t="s">
         <v>1116</v>
@@ -16053,7 +16050,7 @@
         <v>155</v>
       </c>
       <c r="M149" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S149" t="s">
         <v>1124</v>
@@ -16070,16 +16067,16 @@
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B150" t="s">
         <v>2420</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>2421</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>2422</v>
-      </c>
-      <c r="D150" t="s">
-        <v>2423</v>
       </c>
       <c r="E150" t="s">
         <v>20</v>
@@ -16088,7 +16085,7 @@
         <v>270</v>
       </c>
       <c r="G150" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="H150" t="s">
         <v>75</v>
@@ -16100,13 +16097,13 @@
         <v>445</v>
       </c>
       <c r="K150" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="L150" t="s">
         <v>1801</v>
       </c>
       <c r="M150" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S150" t="s">
         <v>1129</v>
@@ -16159,10 +16156,10 @@
         <v>1533</v>
       </c>
       <c r="M151" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N151" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="S151" t="s">
         <v>1137</v>
@@ -16179,16 +16176,16 @@
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B152" t="s">
         <v>2436</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>2437</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>2438</v>
-      </c>
-      <c r="D152" t="s">
-        <v>2439</v>
       </c>
       <c r="E152" t="s">
         <v>20</v>
@@ -16197,7 +16194,7 @@
         <v>821</v>
       </c>
       <c r="G152" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="H152" t="s">
         <v>75</v>
@@ -16209,7 +16206,7 @@
         <v>445</v>
       </c>
       <c r="K152" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="L152" t="s">
         <v>479</v>
@@ -16265,7 +16262,7 @@
         <v>155</v>
       </c>
       <c r="M153" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S153" t="s">
         <v>1153</v>
@@ -16318,10 +16315,10 @@
         <v>263</v>
       </c>
       <c r="M154" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N154" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S154" t="s">
         <v>1157</v>
@@ -16374,7 +16371,7 @@
         <v>165</v>
       </c>
       <c r="M155" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S155" t="s">
         <v>1165</v>
@@ -16383,7 +16380,7 @@
         <v>1166</v>
       </c>
       <c r="U155" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V155" t="s">
         <v>30</v>
@@ -16427,7 +16424,7 @@
         <v>155</v>
       </c>
       <c r="M156" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S156" t="s">
         <v>1169</v>
@@ -16474,7 +16471,7 @@
         <v>1179</v>
       </c>
       <c r="U157" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V157" t="s">
         <v>30</v>
@@ -16518,7 +16515,7 @@
         <v>155</v>
       </c>
       <c r="M158" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S158" t="s">
         <v>1184</v>
@@ -16538,13 +16535,13 @@
         <v>2024</v>
       </c>
       <c r="B159" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C159" t="s">
         <v>2304</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>2305</v>
-      </c>
-      <c r="D159" t="s">
-        <v>2306</v>
       </c>
       <c r="E159" t="s">
         <v>20</v>
@@ -16553,7 +16550,7 @@
         <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="H159" t="s">
         <v>75</v>
@@ -16571,7 +16568,7 @@
         <v>26</v>
       </c>
       <c r="M159" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S159" t="s">
         <v>1192</v>
@@ -16624,7 +16621,7 @@
         <v>459</v>
       </c>
       <c r="M160" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S160" t="s">
         <v>1200</v>
@@ -16677,7 +16674,7 @@
         <v>459</v>
       </c>
       <c r="M161" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S161" t="s">
         <v>1206</v>
@@ -16730,13 +16727,13 @@
         <v>593</v>
       </c>
       <c r="M162" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N162" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O162" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S162" t="s">
         <v>1213</v>
@@ -16753,16 +16750,16 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B163" t="s">
         <v>2296</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>2297</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>2298</v>
-      </c>
-      <c r="D163" t="s">
-        <v>2299</v>
       </c>
       <c r="E163" t="s">
         <v>20</v>
@@ -16771,7 +16768,7 @@
         <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="H163" t="s">
         <v>75</v>
@@ -16783,13 +16780,13 @@
         <v>445</v>
       </c>
       <c r="K163" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="L163" t="s">
         <v>1801</v>
       </c>
       <c r="M163" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S163" t="s">
         <v>1217</v>
@@ -16833,7 +16830,7 @@
         <v>65</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="K164" t="s">
         <v>1094</v>
@@ -16842,7 +16839,7 @@
         <v>1095</v>
       </c>
       <c r="M164" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S164" t="s">
         <v>1224</v>
@@ -16895,7 +16892,7 @@
         <v>155</v>
       </c>
       <c r="M165" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S165" t="s">
         <v>1232</v>
@@ -16948,7 +16945,7 @@
         <v>459</v>
       </c>
       <c r="M166" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S166" t="s">
         <v>1240</v>
@@ -17001,13 +16998,13 @@
         <v>1487</v>
       </c>
       <c r="M167" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N167" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O167" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S167" t="s">
         <v>1248</v>
@@ -17051,7 +17048,7 @@
         <v>65</v>
       </c>
       <c r="J168" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="K168" t="s">
         <v>364</v>
@@ -17060,7 +17057,7 @@
         <v>95</v>
       </c>
       <c r="M168" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="S168" t="s">
         <v>1254</v>
@@ -17113,13 +17110,13 @@
         <v>988</v>
       </c>
       <c r="M169" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N169" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="O169" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S169" t="s">
         <v>1261</v>
@@ -17172,7 +17169,7 @@
         <v>1817</v>
       </c>
       <c r="M170" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="S170" t="s">
         <v>1267</v>
@@ -17225,10 +17222,10 @@
         <v>494</v>
       </c>
       <c r="M171" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N171" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S171" t="s">
         <v>1273</v>
@@ -17281,13 +17278,13 @@
         <v>880</v>
       </c>
       <c r="M172" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N172" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O172" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S172" t="s">
         <v>1278</v>
@@ -17340,7 +17337,7 @@
         <v>2166</v>
       </c>
       <c r="M173" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S173" t="s">
         <v>1286</v>
@@ -17384,7 +17381,7 @@
         <v>65</v>
       </c>
       <c r="J174" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="K174" t="s">
         <v>1642</v>
@@ -17443,7 +17440,7 @@
         <v>1432</v>
       </c>
       <c r="M175" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S175" t="s">
         <v>1300</v>
@@ -17496,7 +17493,7 @@
         <v>155</v>
       </c>
       <c r="M176" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S176" t="s">
         <v>1307</v>
@@ -17540,7 +17537,7 @@
         <v>143</v>
       </c>
       <c r="J177" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K177" t="s">
         <v>144</v>
@@ -17566,7 +17563,7 @@
         <v>461</v>
       </c>
       <c r="B178" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="C178" t="s">
         <v>462</v>
@@ -17599,7 +17596,7 @@
         <v>459</v>
       </c>
       <c r="M178" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S178" t="s">
         <v>1318</v>
@@ -17652,13 +17649,13 @@
         <v>1501</v>
       </c>
       <c r="M179" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N179" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="O179" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S179" t="s">
         <v>1322</v>
@@ -17711,10 +17708,10 @@
         <v>1036</v>
       </c>
       <c r="M180" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N180" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="S180" t="s">
         <v>1329</v>
@@ -17767,7 +17764,7 @@
         <v>165</v>
       </c>
       <c r="M181" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S181" t="s">
         <v>1336</v>
@@ -17870,7 +17867,7 @@
         <v>1354</v>
       </c>
       <c r="U183" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V183" t="s">
         <v>30</v>
@@ -17914,10 +17911,10 @@
         <v>1903</v>
       </c>
       <c r="M184" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N184" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="S184" t="s">
         <v>1359</v>
@@ -17970,10 +17967,10 @@
         <v>365</v>
       </c>
       <c r="M185" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N185" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="S185" t="s">
         <v>1365</v>
@@ -18126,7 +18123,7 @@
         <v>155</v>
       </c>
       <c r="M188" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S188" t="s">
         <v>1388</v>
@@ -18179,7 +18176,7 @@
         <v>155</v>
       </c>
       <c r="M189" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S189" t="s">
         <v>1395</v>
@@ -18232,7 +18229,7 @@
         <v>95</v>
       </c>
       <c r="M190" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="S190" t="s">
         <v>1403</v>
@@ -18249,16 +18246,16 @@
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B191" t="s">
         <v>2252</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>2253</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>2254</v>
-      </c>
-      <c r="D191" t="s">
-        <v>2255</v>
       </c>
       <c r="E191" t="s">
         <v>20</v>
@@ -18267,7 +18264,7 @@
         <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="H191" t="s">
         <v>75</v>
@@ -18279,7 +18276,7 @@
         <v>445</v>
       </c>
       <c r="K191" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="L191" t="s">
         <v>479</v>
@@ -18335,7 +18332,7 @@
         <v>26</v>
       </c>
       <c r="M192" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S192" t="s">
         <v>1417</v>
@@ -18438,7 +18435,7 @@
         <v>656</v>
       </c>
       <c r="M194" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="S194" t="s">
         <v>1433</v>
@@ -18491,7 +18488,7 @@
         <v>165</v>
       </c>
       <c r="M195" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S195" t="s">
         <v>1439</v>
@@ -18535,7 +18532,7 @@
         <v>236</v>
       </c>
       <c r="J196" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K196" t="s">
         <v>1393</v>
@@ -18594,7 +18591,7 @@
         <v>165</v>
       </c>
       <c r="M197" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S197" t="s">
         <v>1452</v>
@@ -18614,13 +18611,13 @@
         <v>70</v>
       </c>
       <c r="B198" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C198" t="s">
         <v>2460</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>2461</v>
-      </c>
-      <c r="D198" t="s">
-        <v>2462</v>
       </c>
       <c r="E198" t="s">
         <v>20</v>
@@ -18629,7 +18626,7 @@
         <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="H198" t="s">
         <v>75</v>
@@ -18647,7 +18644,7 @@
         <v>165</v>
       </c>
       <c r="M198" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S198" t="s">
         <v>1460</v>
@@ -18691,7 +18688,7 @@
         <v>236</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K199" t="s">
         <v>851</v>
@@ -18750,10 +18747,10 @@
         <v>799</v>
       </c>
       <c r="M200" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N200" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S200" t="s">
         <v>1473</v>
@@ -18806,7 +18803,7 @@
         <v>126</v>
       </c>
       <c r="M201" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S201" t="s">
         <v>1480</v>
@@ -18909,7 +18906,7 @@
         <v>155</v>
       </c>
       <c r="M203" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S203" t="s">
         <v>1494</v>
@@ -18926,16 +18923,16 @@
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B204" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="C204" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D204" t="s">
         <v>2379</v>
-      </c>
-      <c r="D204" t="s">
-        <v>2380</v>
       </c>
       <c r="E204" t="s">
         <v>151</v>
@@ -18944,7 +18941,7 @@
         <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="H204" t="s">
         <v>75</v>
@@ -18956,13 +18953,13 @@
         <v>445</v>
       </c>
       <c r="K204" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="L204" t="s">
         <v>459</v>
       </c>
       <c r="M204" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S204" t="s">
         <v>1502</v>
@@ -18979,16 +18976,16 @@
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B205" t="s">
         <v>2377</v>
       </c>
-      <c r="B205" t="s">
-        <v>2378</v>
-      </c>
       <c r="C205" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D205" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="E205" t="s">
         <v>151</v>
@@ -18997,7 +18994,7 @@
         <v>35</v>
       </c>
       <c r="G205" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="H205" t="s">
         <v>75</v>
@@ -19009,13 +19006,13 @@
         <v>445</v>
       </c>
       <c r="K205" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="L205" t="s">
         <v>459</v>
       </c>
       <c r="M205" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S205" t="s">
         <v>1509</v>
@@ -19059,7 +19056,7 @@
         <v>143</v>
       </c>
       <c r="J206" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K206" t="s">
         <v>741</v>
@@ -19118,7 +19115,7 @@
         <v>155</v>
       </c>
       <c r="M207" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S207" t="s">
         <v>1525</v>
@@ -19171,10 +19168,10 @@
         <v>365</v>
       </c>
       <c r="M208" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N208" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="S208" t="s">
         <v>1534</v>
@@ -19244,7 +19241,7 @@
         <v>454</v>
       </c>
       <c r="B210" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="C210" t="s">
         <v>455</v>
@@ -19277,7 +19274,7 @@
         <v>459</v>
       </c>
       <c r="M210" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S210" t="s">
         <v>1547</v>
@@ -19330,7 +19327,7 @@
         <v>1761</v>
       </c>
       <c r="M211" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="S211" t="s">
         <v>1553</v>
@@ -19383,7 +19380,7 @@
         <v>1895</v>
       </c>
       <c r="M212" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S212" t="s">
         <v>1560</v>
@@ -19400,16 +19397,16 @@
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B213" t="s">
         <v>2399</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>2400</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>2401</v>
-      </c>
-      <c r="D213" t="s">
-        <v>2402</v>
       </c>
       <c r="E213" t="s">
         <v>20</v>
@@ -19418,7 +19415,7 @@
         <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="H213" t="s">
         <v>75</v>
@@ -19430,13 +19427,13 @@
         <v>445</v>
       </c>
       <c r="K213" t="s">
+        <v>2403</v>
+      </c>
+      <c r="L213" t="s">
         <v>2404</v>
       </c>
-      <c r="L213" t="s">
-        <v>2405</v>
-      </c>
       <c r="M213" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S213" t="s">
         <v>1569</v>
@@ -19503,16 +19500,16 @@
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B215" t="s">
         <v>2517</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>2518</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>2519</v>
-      </c>
-      <c r="D215" t="s">
-        <v>2520</v>
       </c>
       <c r="E215" t="s">
         <v>151</v>
@@ -19521,7 +19518,7 @@
         <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="H215" t="s">
         <v>75</v>
@@ -19533,13 +19530,13 @@
         <v>445</v>
       </c>
       <c r="K215" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="L215" t="s">
         <v>26</v>
       </c>
       <c r="M215" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S215" t="s">
         <v>1584</v>
@@ -19583,7 +19580,7 @@
         <v>236</v>
       </c>
       <c r="J216" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K216" t="s">
         <v>45</v>
@@ -19642,10 +19639,10 @@
         <v>494</v>
       </c>
       <c r="M217" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="N217" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S217" t="s">
         <v>1599</v>
@@ -19698,10 +19695,10 @@
         <v>1083</v>
       </c>
       <c r="M218" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N218" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S218" t="s">
         <v>1607</v>
@@ -19754,10 +19751,10 @@
         <v>578</v>
       </c>
       <c r="M219" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N219" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="S219" t="s">
         <v>1614</v>
@@ -19777,13 +19774,13 @@
         <v>573</v>
       </c>
       <c r="B220" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C220" t="s">
         <v>2364</v>
       </c>
-      <c r="C220" t="s">
-        <v>2365</v>
-      </c>
       <c r="D220" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="E220" t="s">
         <v>20</v>
@@ -19792,7 +19789,7 @@
         <v>212</v>
       </c>
       <c r="G220" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="H220" t="s">
         <v>75</v>
@@ -19810,7 +19807,7 @@
         <v>1801</v>
       </c>
       <c r="M220" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S220" t="s">
         <v>1621</v>
@@ -19863,7 +19860,7 @@
         <v>26</v>
       </c>
       <c r="M221" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S221" t="s">
         <v>1628</v>
@@ -19916,7 +19913,7 @@
         <v>1637</v>
       </c>
       <c r="U222" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V222" t="s">
         <v>30</v>
@@ -20010,7 +20007,7 @@
         <v>459</v>
       </c>
       <c r="M224" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S224" t="s">
         <v>1648</v>
@@ -20063,7 +20060,7 @@
         <v>1655</v>
       </c>
       <c r="U225" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V225" t="s">
         <v>30</v>
@@ -20107,7 +20104,7 @@
         <v>1239</v>
       </c>
       <c r="M226" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S226" t="s">
         <v>1658</v>
@@ -20151,7 +20148,7 @@
         <v>236</v>
       </c>
       <c r="J227" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K227" t="s">
         <v>45</v>
@@ -20174,16 +20171,16 @@
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B228" t="s">
         <v>2408</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>2409</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>2410</v>
-      </c>
-      <c r="D228" t="s">
-        <v>2411</v>
       </c>
       <c r="E228" t="s">
         <v>151</v>
@@ -20204,13 +20201,13 @@
         <v>445</v>
       </c>
       <c r="K228" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="L228" t="s">
         <v>443</v>
       </c>
       <c r="M228" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S228" t="s">
         <v>1672</v>
@@ -20263,7 +20260,7 @@
         <v>26</v>
       </c>
       <c r="M229" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S229" t="s">
         <v>1679</v>
@@ -20316,7 +20313,7 @@
         <v>1845</v>
       </c>
       <c r="M230" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S230" t="s">
         <v>1686</v>
@@ -20369,7 +20366,7 @@
         <v>155</v>
       </c>
       <c r="M231" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S231" t="s">
         <v>1694</v>
@@ -20389,13 +20386,13 @@
         <v>129</v>
       </c>
       <c r="B232" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C232" t="s">
         <v>2316</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>2317</v>
-      </c>
-      <c r="D232" t="s">
-        <v>2318</v>
       </c>
       <c r="E232" t="s">
         <v>20</v>
@@ -20404,7 +20401,7 @@
         <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="H232" t="s">
         <v>75</v>
@@ -20419,10 +20416,10 @@
         <v>2196</v>
       </c>
       <c r="L232" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="M232" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S232" t="s">
         <v>1701</v>
@@ -20475,13 +20472,13 @@
         <v>988</v>
       </c>
       <c r="M233" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N233" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="O233" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="Q233" t="s">
         <v>479</v>
@@ -20501,16 +20498,16 @@
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B234" t="s">
         <v>2428</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>2429</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>2430</v>
-      </c>
-      <c r="D234" t="s">
-        <v>2431</v>
       </c>
       <c r="E234" t="s">
         <v>20</v>
@@ -20519,7 +20516,7 @@
         <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="H234" t="s">
         <v>75</v>
@@ -20531,16 +20528,16 @@
         <v>445</v>
       </c>
       <c r="K234" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="L234" t="s">
         <v>494</v>
       </c>
       <c r="M234" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N234" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S234" t="s">
         <v>1716</v>
@@ -20557,13 +20554,13 @@
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B235" t="s">
         <v>2504</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>2505</v>
-      </c>
-      <c r="C235" t="s">
-        <v>2506</v>
       </c>
       <c r="D235" t="s">
         <v>1334</v>
@@ -20575,7 +20572,7 @@
         <v>1335</v>
       </c>
       <c r="G235" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="H235" t="s">
         <v>75</v>
@@ -20587,16 +20584,16 @@
         <v>445</v>
       </c>
       <c r="K235" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="L235" t="s">
         <v>1903</v>
       </c>
       <c r="M235" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N235" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="S235" t="s">
         <v>1724</v>
@@ -20649,10 +20646,10 @@
         <v>263</v>
       </c>
       <c r="M236" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N236" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S236" t="s">
         <v>1731</v>
@@ -20705,7 +20702,7 @@
         <v>459</v>
       </c>
       <c r="M237" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S237" t="s">
         <v>1739</v>
@@ -20749,7 +20746,7 @@
         <v>65</v>
       </c>
       <c r="J238" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="K238" t="s">
         <v>67</v>
@@ -20761,7 +20758,7 @@
         <v>1748</v>
       </c>
       <c r="U238" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V238" t="s">
         <v>30</v>
@@ -20855,7 +20852,7 @@
         <v>155</v>
       </c>
       <c r="M240" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S240" t="s">
         <v>1762</v>
@@ -20908,7 +20905,7 @@
         <v>165</v>
       </c>
       <c r="M241" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S241" t="s">
         <v>1770</v>
@@ -20961,10 +20958,10 @@
         <v>1036</v>
       </c>
       <c r="M242" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N242" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="S242" t="s">
         <v>1778</v>
@@ -21017,7 +21014,7 @@
         <v>165</v>
       </c>
       <c r="M243" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S243" t="s">
         <v>1787</v>
@@ -21120,7 +21117,7 @@
         <v>155</v>
       </c>
       <c r="M245" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S245" t="s">
         <v>1802</v>
@@ -21184,16 +21181,16 @@
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B247" t="s">
         <v>2444</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>2445</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>2446</v>
-      </c>
-      <c r="D247" t="s">
-        <v>2447</v>
       </c>
       <c r="E247" t="s">
         <v>20</v>
@@ -21202,7 +21199,7 @@
         <v>84</v>
       </c>
       <c r="G247" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="H247" t="s">
         <v>75</v>
@@ -21217,10 +21214,10 @@
         <v>2218</v>
       </c>
       <c r="L247" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="M247" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S247" t="s">
         <v>1818</v>
@@ -21364,7 +21361,7 @@
         <v>236</v>
       </c>
       <c r="J250" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K250" t="s">
         <v>2227</v>
@@ -21423,7 +21420,7 @@
         <v>165</v>
       </c>
       <c r="M251" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S251" t="s">
         <v>1846</v>
@@ -21440,16 +21437,16 @@
     </row>
     <row r="252" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B252" t="s">
         <v>2260</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>2261</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>2262</v>
-      </c>
-      <c r="D252" t="s">
-        <v>2263</v>
       </c>
       <c r="E252" t="s">
         <v>20</v>
@@ -21470,13 +21467,13 @@
         <v>445</v>
       </c>
       <c r="K252" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="L252" t="s">
         <v>1801</v>
       </c>
       <c r="M252" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S252" t="s">
         <v>1854</v>
@@ -21626,7 +21623,7 @@
         <v>1873</v>
       </c>
       <c r="U255" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V255" t="s">
         <v>30</v>
@@ -21684,13 +21681,13 @@
         <v>176</v>
       </c>
       <c r="B257" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C257" t="s">
         <v>2452</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>2453</v>
-      </c>
-      <c r="D257" t="s">
-        <v>2454</v>
       </c>
       <c r="E257" t="s">
         <v>151</v>
@@ -21699,7 +21696,7 @@
         <v>35</v>
       </c>
       <c r="G257" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="H257" t="s">
         <v>75</v>
@@ -21711,13 +21708,13 @@
         <v>445</v>
       </c>
       <c r="K257" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L257" t="s">
         <v>2456</v>
       </c>
-      <c r="L257" t="s">
-        <v>2457</v>
-      </c>
       <c r="M257" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S257" t="s">
         <v>1888</v>
@@ -21770,7 +21767,7 @@
         <v>26</v>
       </c>
       <c r="M258" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S258" t="s">
         <v>1896</v>
@@ -21814,7 +21811,7 @@
         <v>12</v>
       </c>
       <c r="J259" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K259" t="s">
         <v>85</v>
@@ -21864,7 +21861,7 @@
         <v>54</v>
       </c>
       <c r="J260" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K260" t="s">
         <v>715</v>
@@ -21914,7 +21911,7 @@
         <v>236</v>
       </c>
       <c r="J261" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K261" t="s">
         <v>45</v>
@@ -21976,7 +21973,7 @@
         <v>1924</v>
       </c>
       <c r="U262" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V262" t="s">
         <v>30</v>
@@ -22020,10 +22017,10 @@
         <v>1036</v>
       </c>
       <c r="M263" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N263" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="S263" t="s">
         <v>1930</v>
@@ -22076,10 +22073,10 @@
         <v>2151</v>
       </c>
       <c r="M264" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="N264" s="2" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="S264" t="s">
         <v>1937</v>
@@ -22132,7 +22129,7 @@
         <v>165</v>
       </c>
       <c r="M265" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S265" t="s">
         <v>1945</v>
@@ -22185,7 +22182,7 @@
         <v>2067</v>
       </c>
       <c r="M266" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S266" t="s">
         <v>1952</v>
@@ -22229,7 +22226,7 @@
         <v>1653</v>
       </c>
       <c r="J267" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K267" t="s">
         <v>1723</v>
@@ -22288,7 +22285,7 @@
         <v>452</v>
       </c>
       <c r="M268" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S268" t="s">
         <v>1960</v>
@@ -22341,7 +22338,7 @@
         <v>1095</v>
       </c>
       <c r="M269" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S269" t="s">
         <v>1968</v>
@@ -22408,16 +22405,16 @@
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B271" t="s">
         <v>2267</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
         <v>2268</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>2269</v>
-      </c>
-      <c r="D271" t="s">
-        <v>2270</v>
       </c>
       <c r="E271" t="s">
         <v>151</v>
@@ -22438,13 +22435,13 @@
         <v>445</v>
       </c>
       <c r="K271" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="L271" t="s">
         <v>2067</v>
       </c>
       <c r="M271" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S271" t="s">
         <v>1984</v>
@@ -22497,7 +22494,7 @@
         <v>26</v>
       </c>
       <c r="M272" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S272" t="s">
         <v>1992</v>
@@ -22514,16 +22511,16 @@
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B273" t="s">
         <v>2369</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>2370</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>2371</v>
-      </c>
-      <c r="D273" t="s">
-        <v>2372</v>
       </c>
       <c r="E273" t="s">
         <v>20</v>
@@ -22532,7 +22529,7 @@
         <v>35</v>
       </c>
       <c r="G273" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="H273" t="s">
         <v>75</v>
@@ -22544,13 +22541,13 @@
         <v>445</v>
       </c>
       <c r="K273" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="L273" t="s">
         <v>1801</v>
       </c>
       <c r="M273" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S273" t="s">
         <v>1999</v>
@@ -22653,10 +22650,10 @@
         <v>288</v>
       </c>
       <c r="M275" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N275" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S275" t="s">
         <v>2015</v>
@@ -22709,10 +22706,10 @@
         <v>494</v>
       </c>
       <c r="M276" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N276" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S276" t="s">
         <v>2022</v>
@@ -22756,7 +22753,7 @@
         <v>65</v>
       </c>
       <c r="J277" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="K277" t="s">
         <v>525</v>
@@ -22818,7 +22815,7 @@
         <v>459</v>
       </c>
       <c r="M278" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S278" t="s">
         <v>2036</v>
@@ -22921,7 +22918,7 @@
         <v>1837</v>
       </c>
       <c r="M280" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S280" t="s">
         <v>2053</v>
@@ -22974,7 +22971,7 @@
         <v>1895</v>
       </c>
       <c r="M281" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S281" t="s">
         <v>2060</v>
@@ -23027,7 +23024,7 @@
         <v>26</v>
       </c>
       <c r="M282" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S282" t="s">
         <v>2068</v>
@@ -23047,7 +23044,7 @@
         <v>481</v>
       </c>
       <c r="B283" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="C283" t="s">
         <v>482</v>
@@ -23080,7 +23077,7 @@
         <v>486</v>
       </c>
       <c r="M283" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S283" t="s">
         <v>2075</v>
@@ -23133,10 +23130,10 @@
         <v>1083</v>
       </c>
       <c r="M284" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N284" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S284" t="s">
         <v>2082</v>
@@ -23189,7 +23186,7 @@
         <v>1793</v>
       </c>
       <c r="M285" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S285" t="s">
         <v>2090</v>
@@ -23206,16 +23203,16 @@
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B286" t="s">
         <v>2475</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>2476</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>2477</v>
-      </c>
-      <c r="D286" t="s">
-        <v>2478</v>
       </c>
       <c r="E286" t="s">
         <v>20</v>
@@ -23224,7 +23221,7 @@
         <v>35</v>
       </c>
       <c r="G286" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="H286" t="s">
         <v>75</v>
@@ -23236,13 +23233,13 @@
         <v>445</v>
       </c>
       <c r="K286" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="L286" t="s">
         <v>26</v>
       </c>
       <c r="M286" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S286" t="s">
         <v>2096</v>
@@ -23395,7 +23392,7 @@
         <v>165</v>
       </c>
       <c r="M289" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S289" t="s">
         <v>2116</v>
@@ -23448,7 +23445,7 @@
         <v>445</v>
       </c>
       <c r="U290" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="V290" t="s">
         <v>446</v>
@@ -23483,7 +23480,7 @@
         <v>54</v>
       </c>
       <c r="J291" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K291" t="s">
         <v>144</v>
@@ -23542,7 +23539,7 @@
         <v>1879</v>
       </c>
       <c r="M292" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S292" t="s">
         <v>2137</v>
@@ -23586,7 +23583,7 @@
         <v>236</v>
       </c>
       <c r="J293" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K293" t="s">
         <v>1351</v>
@@ -23686,7 +23683,7 @@
         <v>54</v>
       </c>
       <c r="J295" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="K295" t="s">
         <v>45</v>
@@ -23709,16 +23706,16 @@
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B296" t="s">
         <v>2274</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>2275</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>2276</v>
-      </c>
-      <c r="D296" t="s">
-        <v>2277</v>
       </c>
       <c r="E296" t="s">
         <v>20</v>
@@ -23727,7 +23724,7 @@
         <v>35</v>
       </c>
       <c r="G296" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="H296" t="s">
         <v>75</v>
@@ -23739,13 +23736,13 @@
         <v>445</v>
       </c>
       <c r="K296" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="L296" t="s">
         <v>1837</v>
       </c>
       <c r="M296" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S296" t="s">
         <v>2167</v>
@@ -23762,16 +23759,16 @@
     </row>
     <row r="297" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B297" t="s">
         <v>2323</v>
       </c>
-      <c r="B297" t="s">
+      <c r="C297" t="s">
         <v>2324</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
         <v>2325</v>
-      </c>
-      <c r="D297" t="s">
-        <v>2326</v>
       </c>
       <c r="E297" t="s">
         <v>20</v>
@@ -23780,7 +23777,7 @@
         <v>35</v>
       </c>
       <c r="G297" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="H297" t="s">
         <v>75</v>
@@ -23792,13 +23789,13 @@
         <v>445</v>
       </c>
       <c r="K297" t="s">
+        <v>2327</v>
+      </c>
+      <c r="L297" t="s">
         <v>2328</v>
       </c>
-      <c r="L297" t="s">
-        <v>2329</v>
-      </c>
       <c r="M297" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S297" t="s">
         <v>2175</v>
@@ -23851,7 +23848,7 @@
         <v>155</v>
       </c>
       <c r="M298" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S298" t="s">
         <v>2182</v>
@@ -23895,7 +23892,7 @@
         <v>12</v>
       </c>
       <c r="J299" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="K299" t="s">
         <v>844</v>
@@ -23945,7 +23942,7 @@
         <v>12</v>
       </c>
       <c r="J300" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K300" t="s">
         <v>2029</v>
@@ -24004,7 +24001,7 @@
         <v>78</v>
       </c>
       <c r="M301" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S301" t="s">
         <v>2203</v>
@@ -24057,10 +24054,10 @@
         <v>1903</v>
       </c>
       <c r="M302" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N302" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="S302" t="s">
         <v>2211</v>
@@ -24077,16 +24074,16 @@
     </row>
     <row r="303" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B303" t="s">
         <v>2490</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
         <v>2491</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>2492</v>
-      </c>
-      <c r="D303" t="s">
-        <v>2493</v>
       </c>
       <c r="E303" t="s">
         <v>151</v>
@@ -24107,13 +24104,13 @@
         <v>445</v>
       </c>
       <c r="K303" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="L303" t="s">
         <v>1761</v>
       </c>
       <c r="M303" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="S303" t="s">
         <v>2220</v>
@@ -24180,16 +24177,16 @@
     </row>
     <row r="305" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B305" t="s">
         <v>2496</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>2497</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>2498</v>
-      </c>
-      <c r="D305" t="s">
-        <v>2499</v>
       </c>
       <c r="E305" t="s">
         <v>20</v>
@@ -24198,7 +24195,7 @@
         <v>35</v>
       </c>
       <c r="G305" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="H305" t="s">
         <v>75</v>
@@ -24210,19 +24207,25 @@
         <v>445</v>
       </c>
       <c r="K305" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="L305" t="s">
         <v>452</v>
       </c>
       <c r="M305" t="s">
-        <v>2577</v>
-      </c>
-      <c r="S305" t="s">
+        <v>2576</v>
+      </c>
+      <c r="N305" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="O305" s="2" t="s">
+        <v>2537</v>
+      </c>
+      <c r="S305" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="T305" t="s">
         <v>2236</v>
-      </c>
-      <c r="T305" t="s">
-        <v>2237</v>
       </c>
       <c r="U305" t="s">
         <v>29</v>
@@ -24269,16 +24272,16 @@
         <v>634</v>
       </c>
       <c r="M306" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N306" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S306" t="s">
+        <v>2242</v>
+      </c>
+      <c r="T306" t="s">
         <v>2243</v>
-      </c>
-      <c r="T306" t="s">
-        <v>2244</v>
       </c>
       <c r="U306" t="s">
         <v>29</v>
@@ -24316,7 +24319,7 @@
         <v>236</v>
       </c>
       <c r="J307" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K307" t="s">
         <v>45</v>
@@ -24325,7 +24328,7 @@
         <v>56</v>
       </c>
       <c r="S307" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="T307" t="s">
         <v>445</v>
@@ -24366,7 +24369,7 @@
         <v>236</v>
       </c>
       <c r="J308" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K308" t="s">
         <v>144</v>
@@ -24375,10 +24378,10 @@
         <v>479</v>
       </c>
       <c r="S308" t="s">
+        <v>2257</v>
+      </c>
+      <c r="T308" t="s">
         <v>2258</v>
-      </c>
-      <c r="T308" t="s">
-        <v>2259</v>
       </c>
       <c r="U308" t="s">
         <v>29</v>
@@ -24425,16 +24428,16 @@
         <v>1083</v>
       </c>
       <c r="M309" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N309" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S309" t="s">
+        <v>2264</v>
+      </c>
+      <c r="T309" t="s">
         <v>2265</v>
-      </c>
-      <c r="T309" t="s">
-        <v>2266</v>
       </c>
       <c r="U309" t="s">
         <v>29</v>
@@ -24448,7 +24451,7 @@
         <v>1947</v>
       </c>
       <c r="B310" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="C310" t="s">
         <v>1949</v>
@@ -24481,13 +24484,13 @@
         <v>452</v>
       </c>
       <c r="M310" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S310" t="s">
+        <v>2271</v>
+      </c>
+      <c r="T310" t="s">
         <v>2272</v>
-      </c>
-      <c r="T310" t="s">
-        <v>2273</v>
       </c>
       <c r="U310" t="s">
         <v>29</v>
@@ -24534,13 +24537,13 @@
         <v>452</v>
       </c>
       <c r="M311" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S311" t="s">
+        <v>2279</v>
+      </c>
+      <c r="T311" t="s">
         <v>2280</v>
-      </c>
-      <c r="T311" t="s">
-        <v>2281</v>
       </c>
       <c r="U311" t="s">
         <v>29</v>
@@ -24587,13 +24590,13 @@
         <v>459</v>
       </c>
       <c r="M312" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S312" t="s">
+        <v>2287</v>
+      </c>
+      <c r="T312" t="s">
         <v>2288</v>
-      </c>
-      <c r="T312" t="s">
-        <v>2289</v>
       </c>
       <c r="U312" t="s">
         <v>29</v>
@@ -24640,16 +24643,16 @@
         <v>1459</v>
       </c>
       <c r="M313" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N313" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S313" t="s">
+        <v>2293</v>
+      </c>
+      <c r="T313" t="s">
         <v>2294</v>
-      </c>
-      <c r="T313" t="s">
-        <v>2295</v>
       </c>
       <c r="U313" t="s">
         <v>29</v>
@@ -24696,10 +24699,10 @@
         <v>678</v>
       </c>
       <c r="S314" t="s">
+        <v>2301</v>
+      </c>
+      <c r="T314" t="s">
         <v>2302</v>
-      </c>
-      <c r="T314" t="s">
-        <v>2303</v>
       </c>
       <c r="U314" t="s">
         <v>29</v>
@@ -24737,7 +24740,7 @@
         <v>65</v>
       </c>
       <c r="J315" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="K315" t="s">
         <v>253</v>
@@ -24746,13 +24749,13 @@
         <v>95</v>
       </c>
       <c r="M315" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="S315" t="s">
+        <v>2307</v>
+      </c>
+      <c r="T315" t="s">
         <v>2308</v>
-      </c>
-      <c r="T315" t="s">
-        <v>2309</v>
       </c>
       <c r="U315" t="s">
         <v>29</v>
@@ -24799,13 +24802,13 @@
         <v>1231</v>
       </c>
       <c r="M316" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N316" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="S316" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="T316" t="s">
         <v>445</v>
@@ -24855,13 +24858,13 @@
         <v>165</v>
       </c>
       <c r="M317" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S317" t="s">
+        <v>2320</v>
+      </c>
+      <c r="T317" t="s">
         <v>2321</v>
-      </c>
-      <c r="T317" t="s">
-        <v>2322</v>
       </c>
       <c r="U317" t="s">
         <v>29</v>
@@ -24908,13 +24911,13 @@
         <v>155</v>
       </c>
       <c r="M318" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S318" t="s">
+        <v>2329</v>
+      </c>
+      <c r="T318" t="s">
         <v>2330</v>
-      </c>
-      <c r="T318" t="s">
-        <v>2331</v>
       </c>
       <c r="U318" t="s">
         <v>29</v>
@@ -24925,16 +24928,16 @@
     </row>
     <row r="319" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B319" t="s">
         <v>2510</v>
       </c>
-      <c r="B319" t="s">
+      <c r="C319" t="s">
         <v>2511</v>
       </c>
-      <c r="C319" t="s">
+      <c r="D319" t="s">
         <v>2512</v>
-      </c>
-      <c r="D319" t="s">
-        <v>2513</v>
       </c>
       <c r="E319" t="s">
         <v>151</v>
@@ -24943,7 +24946,7 @@
         <v>35</v>
       </c>
       <c r="G319" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="H319" t="s">
         <v>75</v>
@@ -24955,16 +24958,16 @@
         <v>445</v>
       </c>
       <c r="K319" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="L319" t="s">
         <v>1761</v>
       </c>
       <c r="M319" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="S319" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="T319" t="s">
         <v>445</v>
@@ -25014,13 +25017,13 @@
         <v>459</v>
       </c>
       <c r="M320" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S320" t="s">
+        <v>2342</v>
+      </c>
+      <c r="T320" t="s">
         <v>2343</v>
-      </c>
-      <c r="T320" t="s">
-        <v>2344</v>
       </c>
       <c r="U320" t="s">
         <v>29</v>
@@ -25067,16 +25070,16 @@
         <v>494</v>
       </c>
       <c r="M321" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N321" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S321" t="s">
+        <v>2349</v>
+      </c>
+      <c r="T321" t="s">
         <v>2350</v>
-      </c>
-      <c r="T321" t="s">
-        <v>2351</v>
       </c>
       <c r="U321" t="s">
         <v>29</v>
@@ -25123,19 +25126,19 @@
         <v>593</v>
       </c>
       <c r="M322" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N322" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O322" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S322" t="s">
+        <v>2355</v>
+      </c>
+      <c r="T322" t="s">
         <v>2356</v>
-      </c>
-      <c r="T322" t="s">
-        <v>2357</v>
       </c>
       <c r="U322" t="s">
         <v>29</v>
@@ -25182,10 +25185,10 @@
         <v>1738</v>
       </c>
       <c r="S323" t="s">
+        <v>2361</v>
+      </c>
+      <c r="T323" t="s">
         <v>2362</v>
-      </c>
-      <c r="T323" t="s">
-        <v>2363</v>
       </c>
       <c r="U323" t="s">
         <v>29</v>
@@ -25232,10 +25235,10 @@
         <v>418</v>
       </c>
       <c r="S324" t="s">
+        <v>2366</v>
+      </c>
+      <c r="T324" t="s">
         <v>2367</v>
-      </c>
-      <c r="T324" t="s">
-        <v>2368</v>
       </c>
       <c r="U324" t="s">
         <v>29</v>
@@ -25282,10 +25285,10 @@
         <v>418</v>
       </c>
       <c r="S325" t="s">
+        <v>2374</v>
+      </c>
+      <c r="T325" t="s">
         <v>2375</v>
-      </c>
-      <c r="T325" t="s">
-        <v>2376</v>
       </c>
       <c r="U325" t="s">
         <v>29</v>
@@ -25332,10 +25335,10 @@
         <v>155</v>
       </c>
       <c r="M326" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S326" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="T326" t="s">
         <v>445</v>
@@ -25385,13 +25388,13 @@
         <v>1164</v>
       </c>
       <c r="M327" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S327" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="T327" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="U327" t="s">
         <v>29</v>
@@ -25438,16 +25441,16 @@
         <v>324</v>
       </c>
       <c r="M328" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N328" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="S328" t="s">
+        <v>2389</v>
+      </c>
+      <c r="T328" t="s">
         <v>2390</v>
-      </c>
-      <c r="T328" t="s">
-        <v>2391</v>
       </c>
       <c r="U328" t="s">
         <v>29</v>
@@ -25494,13 +25497,13 @@
         <v>26</v>
       </c>
       <c r="M329" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S329" t="s">
+        <v>2396</v>
+      </c>
+      <c r="T329" t="s">
         <v>2397</v>
-      </c>
-      <c r="T329" t="s">
-        <v>2398</v>
       </c>
       <c r="U329" t="s">
         <v>29</v>
@@ -25547,13 +25550,13 @@
         <v>641</v>
       </c>
       <c r="M330" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S330" t="s">
+        <v>2405</v>
+      </c>
+      <c r="T330" t="s">
         <v>2406</v>
-      </c>
-      <c r="T330" t="s">
-        <v>2407</v>
       </c>
       <c r="U330" t="s">
         <v>29</v>
@@ -25600,7 +25603,7 @@
         <v>54</v>
       </c>
       <c r="S331" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="T331" t="s">
         <v>445</v>
@@ -25617,13 +25620,13 @@
         <v>696</v>
       </c>
       <c r="B332" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C332" t="s">
         <v>2414</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>2415</v>
-      </c>
-      <c r="D332" t="s">
-        <v>2416</v>
       </c>
       <c r="E332" t="s">
         <v>20</v>
@@ -25632,7 +25635,7 @@
         <v>35</v>
       </c>
       <c r="G332" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="H332" t="s">
         <v>53</v>
@@ -25650,10 +25653,10 @@
         <v>479</v>
       </c>
       <c r="S332" t="s">
+        <v>2417</v>
+      </c>
+      <c r="T332" t="s">
         <v>2418</v>
-      </c>
-      <c r="T332" t="s">
-        <v>2419</v>
       </c>
       <c r="U332" t="s">
         <v>29</v>
@@ -25691,7 +25694,7 @@
         <v>12</v>
       </c>
       <c r="J333" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K333" t="s">
         <v>37</v>
@@ -25700,10 +25703,10 @@
         <v>26</v>
       </c>
       <c r="S333" t="s">
+        <v>2425</v>
+      </c>
+      <c r="T333" t="s">
         <v>2426</v>
-      </c>
-      <c r="T333" t="s">
-        <v>2427</v>
       </c>
       <c r="U333" t="s">
         <v>29</v>
@@ -25750,10 +25753,10 @@
         <v>418</v>
       </c>
       <c r="S334" t="s">
+        <v>2433</v>
+      </c>
+      <c r="T334" t="s">
         <v>2434</v>
-      </c>
-      <c r="T334" t="s">
-        <v>2435</v>
       </c>
       <c r="U334" t="s">
         <v>29</v>
@@ -25791,7 +25794,7 @@
         <v>198</v>
       </c>
       <c r="J335" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K335" t="s">
         <v>1358</v>
@@ -25800,10 +25803,10 @@
         <v>1352</v>
       </c>
       <c r="S335" t="s">
+        <v>2441</v>
+      </c>
+      <c r="T335" t="s">
         <v>2442</v>
-      </c>
-      <c r="T335" t="s">
-        <v>2443</v>
       </c>
       <c r="U335" t="s">
         <v>29</v>
@@ -25850,16 +25853,16 @@
         <v>263</v>
       </c>
       <c r="M336" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N336" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S336" t="s">
+        <v>2449</v>
+      </c>
+      <c r="T336" t="s">
         <v>2450</v>
-      </c>
-      <c r="T336" t="s">
-        <v>2451</v>
       </c>
       <c r="U336" t="s">
         <v>29</v>
@@ -25906,13 +25909,13 @@
         <v>459</v>
       </c>
       <c r="M337" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S337" t="s">
+        <v>2457</v>
+      </c>
+      <c r="T337" t="s">
         <v>2458</v>
-      </c>
-      <c r="T337" t="s">
-        <v>2459</v>
       </c>
       <c r="U337" t="s">
         <v>29</v>
@@ -25959,13 +25962,13 @@
         <v>1177</v>
       </c>
       <c r="M338" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S338" t="s">
+        <v>2463</v>
+      </c>
+      <c r="T338" t="s">
         <v>2464</v>
-      </c>
-      <c r="T338" t="s">
-        <v>2465</v>
       </c>
       <c r="U338" t="s">
         <v>29</v>
@@ -26012,10 +26015,10 @@
         <v>1306</v>
       </c>
       <c r="S339" t="s">
+        <v>2472</v>
+      </c>
+      <c r="T339" t="s">
         <v>2473</v>
-      </c>
-      <c r="T339" t="s">
-        <v>2474</v>
       </c>
       <c r="U339" t="s">
         <v>29</v>
@@ -26062,16 +26065,16 @@
         <v>110</v>
       </c>
       <c r="M340" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="N340" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S340" t="s">
+        <v>2479</v>
+      </c>
+      <c r="T340" t="s">
         <v>2480</v>
-      </c>
-      <c r="T340" t="s">
-        <v>2481</v>
       </c>
       <c r="U340" t="s">
         <v>29</v>
@@ -26109,7 +26112,7 @@
         <v>65</v>
       </c>
       <c r="J341" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="K341" t="s">
         <v>101</v>
@@ -26118,16 +26121,16 @@
         <v>102</v>
       </c>
       <c r="M341" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="N341" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="S341" t="s">
+        <v>2487</v>
+      </c>
+      <c r="T341" t="s">
         <v>2488</v>
-      </c>
-      <c r="T341" t="s">
-        <v>2489</v>
       </c>
       <c r="U341" t="s">
         <v>29</v>
@@ -26141,10 +26144,10 @@
         <v>97</v>
       </c>
       <c r="B342" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C342" t="s">
         <v>2238</v>
-      </c>
-      <c r="C342" t="s">
-        <v>2239</v>
       </c>
       <c r="D342" t="s">
         <v>100</v>
@@ -26156,7 +26159,7 @@
         <v>35</v>
       </c>
       <c r="G342" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="H342" t="s">
         <v>75</v>
@@ -26168,16 +26171,16 @@
         <v>445</v>
       </c>
       <c r="K342" t="s">
+        <v>2240</v>
+      </c>
+      <c r="L342" t="s">
         <v>2241</v>
       </c>
-      <c r="L342" t="s">
-        <v>2242</v>
-      </c>
       <c r="M342" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="S342" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="T342" t="s">
         <v>445</v>
@@ -26227,16 +26230,16 @@
         <v>923</v>
       </c>
       <c r="M343" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="N343" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="S343" t="s">
+        <v>2501</v>
+      </c>
+      <c r="T343" t="s">
         <v>2502</v>
-      </c>
-      <c r="T343" t="s">
-        <v>2503</v>
       </c>
       <c r="U343" t="s">
         <v>29</v>
@@ -26283,10 +26286,10 @@
         <v>56</v>
       </c>
       <c r="S344" t="s">
+        <v>2507</v>
+      </c>
+      <c r="T344" t="s">
         <v>2508</v>
-      </c>
-      <c r="T344" t="s">
-        <v>2509</v>
       </c>
       <c r="U344" t="s">
         <v>29</v>
@@ -26303,7 +26306,7 @@
         <v>516</v>
       </c>
       <c r="S345" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="T345" t="s">
         <v>445</v>
@@ -26323,10 +26326,10 @@
         <v>518</v>
       </c>
       <c r="S346" t="s">
+        <v>2522</v>
+      </c>
+      <c r="T346" t="s">
         <v>2523</v>
-      </c>
-      <c r="T346" t="s">
-        <v>2524</v>
       </c>
       <c r="U346" t="s">
         <v>29</v>
@@ -26369,9 +26372,12 @@
     <hyperlink ref="J179" r:id="rId22" xr:uid="{64DA7517-CE56-40D7-A9C3-D47026002402}"/>
     <hyperlink ref="S9" r:id="rId23" xr:uid="{D645D0AD-13A7-465A-B190-67B94C67453B}"/>
     <hyperlink ref="S8" r:id="rId24" xr:uid="{D2DCF728-1C7B-4208-B3D3-CC8919F2B935}"/>
+    <hyperlink ref="N305" r:id="rId25" xr:uid="{D6C24F91-B78B-48C5-93CB-D866DF254D1C}"/>
+    <hyperlink ref="O305" r:id="rId26" xr:uid="{E2450FD3-D399-45C2-8AE9-EF71A162CF1A}"/>
+    <hyperlink ref="S305" r:id="rId27" xr:uid="{A18132AA-2004-4B71-B816-3F0FCAB0A67A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId25"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -26392,10 +26398,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -26403,7 +26409,7 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -26411,23 +26417,23 @@
         <v>1761</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -26438,7 +26444,7 @@
         <v>1897</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -26449,18 +26455,18 @@
         <v>1881</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1889</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -26468,10 +26474,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="C9" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -26479,10 +26485,10 @@
         <v>403</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -26493,7 +26499,7 @@
         <v>445</v>
       </c>
       <c r="C11" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -26501,10 +26507,10 @@
         <v>252</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>2556</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2557</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -26515,18 +26521,18 @@
         <v>1889</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1905</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -26542,7 +26548,7 @@
         <v>1869</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -26555,10 +26561,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C18" t="s">
         <v>2575</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2576</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FDA_EUA tests/FDAEUAtest_pre_Ontorat.xlsx
+++ b/docs/FDA_EUA tests/FDAEUAtest_pre_Ontorat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linay\ontologies\GitHub\cido\docs\FDA_EUA tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19486590-C0E3-4BD8-9C2F-60FE60EAA059}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DD1C6A-5076-47F7-B5FA-DE5D8C97C34E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CB072C4-4071-45ED-9E21-A7B6C58CD755}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5844" uniqueCount="2583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="2582">
   <si>
     <t>Company/Organization</t>
   </si>
@@ -7679,12 +7679,6 @@
     <t>Gene4</t>
   </si>
   <si>
-    <t xml:space="preserve"> M</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>COVID-19 lateral flow immunoassay</t>
   </si>
   <si>
@@ -7832,23 +7826,26 @@
     <t>http://purl.obolibrary.org/obo/OGG_30437405791</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OGG_30437405791a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGG_30437405791a</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://purl.obolibrary.org/obo/OGG_3043740579 </t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OGG_3043740579 N</t>
+    <t>http://purl.obolibrary.org/obo/OGG_3043740577</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OGG_3043740571</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OGG_1002697049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGG_30437405791</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7870,6 +7867,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7888,18 +7890,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C0051790-B8E1-42F0-8F79-A66E2D6AC027}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -8226,8 +8231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6338C626-B5C7-4274-B4C3-F95CCA523B46}">
   <dimension ref="A1:V346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K276" workbookViewId="0">
-      <selection activeCell="S305" sqref="S305"/>
+    <sheetView tabSelected="1" topLeftCell="E334" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:P344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8277,19 +8282,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>2524</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>2525</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>2526</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>2527</v>
       </c>
       <c r="Q1" t="s">
@@ -8299,7 +8304,7 @@
         <v>13</v>
       </c>
       <c r="T1" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -8342,15 +8347,17 @@
       <c r="K2" t="s">
         <v>1902</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>1903</v>
       </c>
-      <c r="M2" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2539</v>
-      </c>
+      <c r="M2" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
       <c r="S2" t="s">
         <v>27</v>
       </c>
@@ -8398,12 +8405,15 @@
       <c r="K3" t="s">
         <v>2174</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>1895</v>
       </c>
-      <c r="M3" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M3" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
       <c r="S3" t="s">
         <v>38</v>
       </c>
@@ -8436,6 +8446,11 @@
       <c r="J4" t="s">
         <v>1889</v>
       </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
       <c r="S4" t="s">
         <v>46</v>
       </c>
@@ -8478,11 +8493,16 @@
         <v>54</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K5" t="s">
         <v>45</v>
       </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
       <c r="Q5" t="s">
         <v>1102</v>
       </c>
@@ -8528,11 +8548,16 @@
         <v>93</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K6" t="s">
         <v>94</v>
       </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
       <c r="Q6" t="s">
         <v>708</v>
       </c>
@@ -8583,12 +8608,15 @@
       <c r="K7" t="s">
         <v>2388</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M7" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
       <c r="S7" s="2" t="s">
         <v>79</v>
       </c>
@@ -8631,11 +8659,16 @@
         <v>143</v>
       </c>
       <c r="J8" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K8" t="s">
         <v>144</v>
       </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
       <c r="S8" s="2" t="s">
         <v>86</v>
       </c>
@@ -8683,18 +8716,19 @@
       <c r="K9" t="s">
         <v>1486</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="3" t="s">
         <v>1487</v>
       </c>
-      <c r="M9" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M9" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>2543</v>
       </c>
-      <c r="O9" t="s">
-        <v>2545</v>
-      </c>
+      <c r="P9" s="3"/>
       <c r="S9" s="2" t="s">
         <v>1488</v>
       </c>
@@ -8742,12 +8776,15 @@
       <c r="K10" t="s">
         <v>215</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="M10" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M10" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
       <c r="S10" t="s">
         <v>103</v>
       </c>
@@ -8784,11 +8821,16 @@
         <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K11" t="s">
         <v>45</v>
       </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
       <c r="S11" t="s">
         <v>111</v>
       </c>
@@ -8836,6 +8878,11 @@
       <c r="K12" t="s">
         <v>45</v>
       </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
       <c r="Q12" t="s">
         <v>1102</v>
       </c>
@@ -8886,6 +8933,11 @@
       <c r="K13" t="s">
         <v>1867</v>
       </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
       <c r="Q13" t="s">
         <v>479</v>
       </c>
@@ -8931,11 +8983,16 @@
         <v>93</v>
       </c>
       <c r="J14" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K14" t="s">
         <v>94</v>
       </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
       <c r="Q14" t="s">
         <v>95</v>
       </c>
@@ -8986,18 +9043,19 @@
       <c r="K15" t="s">
         <v>895</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="M15" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N15" t="s">
-        <v>2545</v>
-      </c>
-      <c r="O15" t="s">
-        <v>2577</v>
-      </c>
+      <c r="M15" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="P15" s="3"/>
       <c r="S15" t="s">
         <v>145</v>
       </c>
@@ -9016,7 +9074,7 @@
         <v>447</v>
       </c>
       <c r="B16" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="C16" t="s">
         <v>448</v>
@@ -9045,12 +9103,19 @@
       <c r="K16" t="s">
         <v>451</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="M16" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M16" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="P16" s="3"/>
       <c r="S16" t="s">
         <v>156</v>
       </c>
@@ -9098,15 +9163,17 @@
       <c r="K17" t="s">
         <v>915</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="M17" t="s">
-        <v>2539</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2545</v>
-      </c>
+      <c r="M17" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
       <c r="S17" t="s">
         <v>166</v>
       </c>
@@ -9154,15 +9221,17 @@
       <c r="K18" t="s">
         <v>313</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="M18" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N18" t="s">
-        <v>2577</v>
-      </c>
+      <c r="M18" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
       <c r="S18" t="s">
         <v>174</v>
       </c>
@@ -9210,15 +9279,17 @@
       <c r="K19" t="s">
         <v>569</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="M19" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N19" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M19" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
       <c r="S19" t="s">
         <v>182</v>
       </c>
@@ -9266,12 +9337,17 @@
       <c r="K20" t="s">
         <v>1894</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>1895</v>
       </c>
-      <c r="M20" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M20" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
       <c r="S20" t="s">
         <v>191</v>
       </c>
@@ -9319,12 +9395,19 @@
       <c r="K21" t="s">
         <v>2486</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="3" t="s">
         <v>1801</v>
       </c>
-      <c r="M21" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M21" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="P21" s="3"/>
       <c r="S21" t="s">
         <v>199</v>
       </c>
@@ -9372,12 +9455,19 @@
       <c r="K22" t="s">
         <v>1144</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="M22" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M22" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="P22" s="3"/>
       <c r="S22" t="s">
         <v>206</v>
       </c>
@@ -9425,18 +9515,19 @@
       <c r="K23" t="s">
         <v>2088</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="3" t="s">
         <v>2089</v>
       </c>
-      <c r="M23" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N23" t="s">
-        <v>2537</v>
-      </c>
-      <c r="O23" t="s">
-        <v>2540</v>
-      </c>
+      <c r="M23" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="P23" s="3"/>
       <c r="S23" t="s">
         <v>216</v>
       </c>
@@ -9484,18 +9575,19 @@
       <c r="K24" t="s">
         <v>215</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="M24" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="M24" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>2543</v>
       </c>
-      <c r="O24" t="s">
-        <v>2545</v>
-      </c>
+      <c r="P24" s="3"/>
       <c r="S24" t="s">
         <v>223</v>
       </c>
@@ -9543,12 +9635,15 @@
       <c r="K25" t="s">
         <v>1402</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M25" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M25" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
       <c r="S25" t="s">
         <v>230</v>
       </c>
@@ -9596,6 +9691,11 @@
       <c r="K26" t="s">
         <v>2043</v>
       </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
       <c r="Q26" t="s">
         <v>95</v>
       </c>
@@ -9641,11 +9741,16 @@
         <v>236</v>
       </c>
       <c r="J27" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K27" t="s">
         <v>2130</v>
       </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
       <c r="Q27" t="s">
         <v>479</v>
       </c>
@@ -9696,12 +9801,15 @@
       <c r="K28" t="s">
         <v>1944</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M28" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M28" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
       <c r="S28" t="s">
         <v>254</v>
       </c>
@@ -9749,12 +9857,15 @@
       <c r="K29" t="s">
         <v>134</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M29" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M29" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
       <c r="S29" t="s">
         <v>264</v>
       </c>
@@ -9802,12 +9913,15 @@
       <c r="K30" t="s">
         <v>1860</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M30" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M30" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
       <c r="S30" t="s">
         <v>273</v>
       </c>
@@ -9855,15 +9969,17 @@
       <c r="K31" t="s">
         <v>262</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="M31" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N31" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M31" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
       <c r="S31" t="s">
         <v>280</v>
       </c>
@@ -9911,15 +10027,17 @@
       <c r="K32" t="s">
         <v>1606</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="M32" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N32" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M32" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
       <c r="S32" t="s">
         <v>289</v>
       </c>
@@ -9967,12 +10085,15 @@
       <c r="K33" t="s">
         <v>1753</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M33" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M33" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
       <c r="S33" t="s">
         <v>299</v>
       </c>
@@ -10020,12 +10141,15 @@
       <c r="K34" t="s">
         <v>1929</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="3" t="s">
         <v>1761</v>
       </c>
-      <c r="M34" t="s">
-        <v>2539</v>
-      </c>
+      <c r="M34" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
       <c r="S34" t="s">
         <v>306</v>
       </c>
@@ -10073,12 +10197,15 @@
       <c r="K35" t="s">
         <v>534</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M35" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M35" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
       <c r="S35" t="s">
         <v>315</v>
       </c>
@@ -10121,11 +10248,16 @@
         <v>236</v>
       </c>
       <c r="J36" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K36" t="s">
         <v>1351</v>
       </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
       <c r="Q36" t="s">
         <v>1423</v>
       </c>
@@ -10176,6 +10308,11 @@
       <c r="K37" t="s">
         <v>45</v>
       </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
       <c r="Q37" t="s">
         <v>1102</v>
       </c>
@@ -10226,6 +10363,11 @@
       <c r="K38" t="s">
         <v>1867</v>
       </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
       <c r="Q38" t="s">
         <v>479</v>
       </c>
@@ -10276,12 +10418,15 @@
       <c r="K39" t="s">
         <v>506</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M39" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M39" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
       <c r="S39" t="s">
         <v>349</v>
       </c>
@@ -10329,12 +10474,15 @@
       <c r="K40" t="s">
         <v>1777</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M40" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M40" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
       <c r="S40" t="s">
         <v>357</v>
       </c>
@@ -10382,6 +10530,11 @@
       <c r="K41" t="s">
         <v>1393</v>
       </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
       <c r="Q41" t="s">
         <v>708</v>
       </c>
@@ -10432,15 +10585,17 @@
       <c r="K42" t="s">
         <v>995</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="M42" t="s">
-        <v>2578</v>
-      </c>
-      <c r="N42" t="s">
-        <v>2546</v>
-      </c>
+      <c r="M42" s="3" t="s">
+        <v>2576</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
       <c r="S42" t="s">
         <v>375</v>
       </c>
@@ -10488,12 +10643,15 @@
       <c r="K43" t="s">
         <v>37</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="M43" t="s">
-        <v>2579</v>
-      </c>
+      <c r="M43" s="3" t="s">
+        <v>2576</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
       <c r="S43" t="s">
         <v>383</v>
       </c>
@@ -10541,12 +10699,15 @@
       <c r="K44" t="s">
         <v>569</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M44" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M44" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
       <c r="S44" t="s">
         <v>391</v>
       </c>
@@ -10594,12 +10755,15 @@
       <c r="K45" t="s">
         <v>2196</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M45" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M45" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
       <c r="T45" t="s">
         <v>398</v>
       </c>
@@ -10644,6 +10808,11 @@
       <c r="K46" t="s">
         <v>67</v>
       </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
       <c r="Q46" t="s">
         <v>26</v>
       </c>
@@ -10686,11 +10855,16 @@
         <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K47" t="s">
         <v>67</v>
       </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
       <c r="Q47" t="s">
         <v>26</v>
       </c>
@@ -10736,11 +10910,16 @@
         <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K48" t="s">
         <v>67</v>
       </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
       <c r="Q48" t="s">
         <v>26</v>
       </c>
@@ -10788,6 +10967,11 @@
       <c r="K49" t="s">
         <v>67</v>
       </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
       <c r="S49" t="s">
         <v>427</v>
       </c>
@@ -10795,7 +10979,7 @@
         <v>428</v>
       </c>
       <c r="U49" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V49" t="s">
         <v>30</v>
@@ -10830,11 +11014,16 @@
         <v>236</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K50" t="s">
         <v>397</v>
       </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
       <c r="S50" t="s">
         <v>435</v>
       </c>
@@ -10877,11 +11066,16 @@
         <v>54</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K51" t="s">
         <v>851</v>
       </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
       <c r="Q51" t="s">
         <v>95</v>
       </c>
@@ -10927,11 +11121,16 @@
         <v>93</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K52" t="s">
         <v>851</v>
       </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
       <c r="Q52" t="s">
         <v>95</v>
       </c>
@@ -10982,12 +11181,15 @@
       <c r="K53" t="s">
         <v>1700</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M53" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M53" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
       <c r="S53" t="s">
         <v>460</v>
       </c>
@@ -11035,12 +11237,15 @@
       <c r="K54" t="s">
         <v>1959</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M54" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M54" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
       <c r="S54" t="s">
         <v>466</v>
       </c>
@@ -11088,12 +11293,15 @@
       <c r="K55" t="s">
         <v>1785</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="3" t="s">
         <v>1786</v>
       </c>
-      <c r="M55" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M55" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
       <c r="S55" t="s">
         <v>473</v>
       </c>
@@ -11141,12 +11349,17 @@
       <c r="K56" t="s">
         <v>2218</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="3" t="s">
         <v>2219</v>
       </c>
-      <c r="M56" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M56" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>2578</v>
+      </c>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
       <c r="S56" s="2" t="s">
         <v>480</v>
       </c>
@@ -11194,9 +11407,17 @@
       <c r="K57" t="s">
         <v>1606</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="3" t="s">
         <v>2095</v>
       </c>
+      <c r="M57" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>2579</v>
+      </c>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
       <c r="S57" t="s">
         <v>487</v>
       </c>
@@ -11244,15 +11465,17 @@
       <c r="K58" t="s">
         <v>37</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="M58" t="s">
-        <v>2540</v>
-      </c>
-      <c r="N58" t="s">
-        <v>2528</v>
-      </c>
+      <c r="M58" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>2579</v>
+      </c>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
       <c r="S58" t="s">
         <v>495</v>
       </c>
@@ -11300,12 +11523,15 @@
       <c r="K59" t="s">
         <v>2196</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M59" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M59" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
       <c r="S59" t="s">
         <v>500</v>
       </c>
@@ -11348,11 +11574,16 @@
         <v>236</v>
       </c>
       <c r="J60" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K60" t="s">
         <v>1583</v>
       </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
       <c r="Q60" t="s">
         <v>426</v>
       </c>
@@ -11403,15 +11634,17 @@
       <c r="K61" t="s">
         <v>1135</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="M61" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N61" t="s">
-        <v>2545</v>
-      </c>
+      <c r="M61" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
       <c r="S61" t="s">
         <v>514</v>
       </c>
@@ -11459,12 +11692,15 @@
       <c r="K62" t="s">
         <v>684</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M62" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M62" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
       <c r="T62" t="s">
         <v>445</v>
       </c>
@@ -11509,12 +11745,15 @@
       <c r="K63" t="s">
         <v>569</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M63" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M63" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
       <c r="T63" t="s">
         <v>519</v>
       </c>
@@ -11559,12 +11798,15 @@
       <c r="K64" t="s">
         <v>2102</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M64" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M64" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
       <c r="S64" t="s">
         <v>527</v>
       </c>
@@ -11612,12 +11854,15 @@
       <c r="K65" t="s">
         <v>374</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M65" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M65" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
       <c r="S65" t="s">
         <v>535</v>
       </c>
@@ -11660,11 +11905,16 @@
         <v>236</v>
       </c>
       <c r="J66" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K66" t="s">
         <v>144</v>
       </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
       <c r="Q66" t="s">
         <v>479</v>
       </c>
@@ -11715,12 +11965,15 @@
       <c r="K67" t="s">
         <v>313</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M67" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M67" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
       <c r="S67" t="s">
         <v>549</v>
       </c>
@@ -11768,18 +12021,19 @@
       <c r="K68" t="s">
         <v>1299</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="M68" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N68" t="s">
-        <v>2545</v>
-      </c>
-      <c r="O68" t="s">
-        <v>2577</v>
-      </c>
+      <c r="M68" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="P68" s="3"/>
       <c r="S68" t="s">
         <v>556</v>
       </c>
@@ -11822,11 +12076,16 @@
         <v>12</v>
       </c>
       <c r="J69" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K69" t="s">
         <v>37</v>
       </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
       <c r="Q69" t="s">
         <v>26</v>
       </c>
@@ -11872,11 +12131,16 @@
         <v>236</v>
       </c>
       <c r="J70" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K70" t="s">
         <v>144</v>
       </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
       <c r="Q70" t="s">
         <v>1272</v>
       </c>
@@ -11927,15 +12191,17 @@
       <c r="K71" t="s">
         <v>1408</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="3" t="s">
         <v>1409</v>
       </c>
-      <c r="M71" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N71" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M71" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
       <c r="S71" t="s">
         <v>579</v>
       </c>
@@ -11983,12 +12249,15 @@
       <c r="K72" t="s">
         <v>2235</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M72" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M72" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
       <c r="S72" t="s">
         <v>587</v>
       </c>
@@ -12036,12 +12305,17 @@
       <c r="K73" t="s">
         <v>2313</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" s="3" t="s">
         <v>2241</v>
       </c>
-      <c r="M73" t="s">
-        <v>2539</v>
-      </c>
+      <c r="M73" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
       <c r="S73" t="s">
         <v>594</v>
       </c>
@@ -12089,15 +12363,17 @@
       <c r="K74" t="s">
         <v>1444</v>
       </c>
-      <c r="L74" t="s">
+      <c r="L74" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="M74" t="s">
-        <v>2539</v>
-      </c>
-      <c r="N74" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M74" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
       <c r="S74" t="s">
         <v>601</v>
       </c>
@@ -12145,12 +12421,15 @@
       <c r="K75" t="s">
         <v>279</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L75" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M75" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M75" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
       <c r="S75" t="s">
         <v>607</v>
       </c>
@@ -12198,15 +12477,17 @@
       <c r="K76" t="s">
         <v>2335</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L76" s="3" t="s">
         <v>2151</v>
       </c>
-      <c r="M76" t="s">
-        <v>2547</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>2540</v>
-      </c>
+      <c r="M76" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
       <c r="S76" t="s">
         <v>614</v>
       </c>
@@ -12254,12 +12535,19 @@
       <c r="K77" t="s">
         <v>2249</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="M77" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M77" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="P77" s="3"/>
       <c r="S77" t="s">
         <v>621</v>
       </c>
@@ -12307,12 +12595,15 @@
       <c r="K78" t="s">
         <v>215</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L78" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M78" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M78" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
       <c r="S78" t="s">
         <v>628</v>
       </c>
@@ -12355,17 +12646,20 @@
         <v>65</v>
       </c>
       <c r="J79" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="K79" t="s">
         <v>313</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="M79" t="s">
-        <v>2529</v>
-      </c>
+      <c r="M79" s="3" t="s">
+        <v>2580</v>
+      </c>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
       <c r="S79" t="s">
         <v>635</v>
       </c>
@@ -12413,15 +12707,17 @@
       <c r="K80" t="s">
         <v>1190</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="M80" t="s">
-        <v>2539</v>
-      </c>
-      <c r="N80" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M80" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
       <c r="S80" t="s">
         <v>642</v>
       </c>
@@ -12469,18 +12765,19 @@
       <c r="K81" t="s">
         <v>364</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="M81" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N81" t="s">
-        <v>2546</v>
-      </c>
-      <c r="O81" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M81" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="P81" s="3"/>
       <c r="S81" t="s">
         <v>650</v>
       </c>
@@ -12517,11 +12814,16 @@
         <v>12</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="K82" t="s">
         <v>534</v>
       </c>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
       <c r="Q82" t="s">
         <v>26</v>
       </c>
@@ -12572,12 +12874,17 @@
       <c r="K83" t="s">
         <v>2470</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L83" s="3" t="s">
         <v>2471</v>
       </c>
-      <c r="M83" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M83" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
       <c r="S83" t="s">
         <v>664</v>
       </c>
@@ -12625,15 +12932,17 @@
       <c r="K84" t="s">
         <v>77</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="M84" t="s">
-        <v>2577</v>
-      </c>
-      <c r="N84" t="s">
-        <v>2546</v>
-      </c>
+      <c r="M84" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
       <c r="S84" t="s">
         <v>671</v>
       </c>
@@ -12681,15 +12990,17 @@
       <c r="K85" t="s">
         <v>77</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L85" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="M85" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N85" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M85" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
       <c r="S85" t="s">
         <v>679</v>
       </c>
@@ -12728,6 +13039,11 @@
       <c r="K86" t="s">
         <v>534</v>
       </c>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
       <c r="S86" t="s">
         <v>685</v>
       </c>
@@ -12735,7 +13051,7 @@
         <v>686</v>
       </c>
       <c r="U86" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V86" t="s">
         <v>30</v>
@@ -12775,6 +13091,11 @@
       <c r="K87" t="s">
         <v>67</v>
       </c>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
       <c r="S87" t="s">
         <v>694</v>
       </c>
@@ -12782,7 +13103,7 @@
         <v>695</v>
       </c>
       <c r="U87" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V87" t="s">
         <v>30</v>
@@ -12822,12 +13143,19 @@
       <c r="K88" t="s">
         <v>1800</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L88" s="3" t="s">
         <v>1801</v>
       </c>
-      <c r="M88" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M88" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="P88" s="3"/>
       <c r="S88" t="s">
         <v>701</v>
       </c>
@@ -12875,20 +13203,20 @@
       <c r="K89" t="s">
         <v>540</v>
       </c>
-      <c r="L89" t="s">
+      <c r="L89" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="M89" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N89" t="s">
-        <v>2546</v>
-      </c>
-      <c r="O89" t="s">
-        <v>2545</v>
-      </c>
-      <c r="P89" t="s">
-        <v>2580</v>
+      <c r="M89" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>2575</v>
       </c>
       <c r="S89" t="s">
         <v>709</v>
@@ -12937,12 +13265,15 @@
       <c r="K90" t="s">
         <v>1003</v>
       </c>
-      <c r="L90" t="s">
+      <c r="L90" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M90" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M90" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
       <c r="S90" t="s">
         <v>716</v>
       </c>
@@ -12990,18 +13321,19 @@
       <c r="K91" t="s">
         <v>1606</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L91" s="3" t="s">
         <v>1487</v>
       </c>
-      <c r="M91" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N91" t="s">
+      <c r="M91" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>2543</v>
       </c>
-      <c r="O91" t="s">
-        <v>2545</v>
-      </c>
+      <c r="P91" s="3"/>
       <c r="S91" t="s">
         <v>723</v>
       </c>
@@ -13049,12 +13381,15 @@
       <c r="K92" t="s">
         <v>2341</v>
       </c>
-      <c r="L92" t="s">
+      <c r="L92" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M92" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M92" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
       <c r="S92" t="s">
         <v>728</v>
       </c>
@@ -13102,15 +13437,17 @@
       <c r="K93" t="s">
         <v>1575</v>
       </c>
-      <c r="L93" t="s">
+      <c r="L93" s="3" t="s">
         <v>1576</v>
       </c>
-      <c r="M93" t="s">
-        <v>2581</v>
-      </c>
-      <c r="N93" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M93" s="3" t="s">
+        <v>2577</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
       <c r="S93" t="s">
         <v>734</v>
       </c>
@@ -13158,6 +13495,11 @@
       <c r="K94" t="s">
         <v>2051</v>
       </c>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
       <c r="Q94" t="s">
         <v>2395</v>
       </c>
@@ -13208,6 +13550,11 @@
       <c r="K95" t="s">
         <v>851</v>
       </c>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
       <c r="Q95" t="s">
         <v>1022</v>
       </c>
@@ -13253,11 +13600,16 @@
         <v>1866</v>
       </c>
       <c r="J96" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K96" t="s">
         <v>1886</v>
       </c>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
       <c r="Q96" t="s">
         <v>1887</v>
       </c>
@@ -13308,12 +13660,15 @@
       <c r="K97" t="s">
         <v>442</v>
       </c>
-      <c r="L97" t="s">
+      <c r="L97" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="M97" t="s">
-        <v>2544</v>
-      </c>
+      <c r="M97" s="3" t="s">
+        <v>2542</v>
+      </c>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
       <c r="S97" t="s">
         <v>763</v>
       </c>
@@ -13361,15 +13716,17 @@
       <c r="K98" t="s">
         <v>390</v>
       </c>
-      <c r="L98" t="s">
+      <c r="L98" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="M98" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N98" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M98" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
       <c r="S98" t="s">
         <v>771</v>
       </c>
@@ -13417,15 +13774,17 @@
       <c r="K99" t="s">
         <v>1458</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L99" s="3" t="s">
         <v>1459</v>
       </c>
-      <c r="M99" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N99" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M99" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
       <c r="S99" t="s">
         <v>778</v>
       </c>
@@ -13444,7 +13803,7 @@
         <v>496</v>
       </c>
       <c r="B100" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="C100" t="s">
         <v>497</v>
@@ -13473,12 +13832,15 @@
       <c r="K100" t="s">
         <v>499</v>
       </c>
-      <c r="L100" t="s">
+      <c r="L100" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M100" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M100" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
       <c r="S100" t="s">
         <v>784</v>
       </c>
@@ -13497,7 +13859,7 @@
         <v>168</v>
       </c>
       <c r="B101" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="C101" t="s">
         <v>2351</v>
@@ -13526,12 +13888,15 @@
       <c r="K101" t="s">
         <v>2354</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L101" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M101" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M101" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
       <c r="S101" t="s">
         <v>791</v>
       </c>
@@ -13579,6 +13944,11 @@
       <c r="K102" t="s">
         <v>45</v>
       </c>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
       <c r="Q102" t="s">
         <v>770</v>
       </c>
@@ -13629,18 +13999,19 @@
       <c r="K103" t="s">
         <v>215</v>
       </c>
-      <c r="L103" t="s">
+      <c r="L103" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="M103" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="M103" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O103" s="3" t="s">
         <v>2543</v>
       </c>
-      <c r="O103" t="s">
-        <v>2545</v>
-      </c>
+      <c r="P103" s="3"/>
       <c r="S103" t="s">
         <v>808</v>
       </c>
@@ -13688,6 +14059,11 @@
       <c r="K104" t="s">
         <v>45</v>
       </c>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
       <c r="Q104" t="s">
         <v>95</v>
       </c>
@@ -13738,12 +14114,15 @@
       <c r="K105" t="s">
         <v>215</v>
       </c>
-      <c r="L105" t="s">
+      <c r="L105" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="M105" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M105" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
       <c r="S105" t="s">
         <v>823</v>
       </c>
@@ -13791,12 +14170,15 @@
       <c r="K106" t="s">
         <v>1386</v>
       </c>
-      <c r="L106" t="s">
+      <c r="L106" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="M106" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M106" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
       <c r="S106" t="s">
         <v>829</v>
       </c>
@@ -13844,12 +14226,15 @@
       <c r="K107" t="s">
         <v>534</v>
       </c>
-      <c r="L107" t="s">
+      <c r="L107" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M107" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M107" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
       <c r="S107" t="s">
         <v>838</v>
       </c>
@@ -13897,12 +14282,15 @@
       <c r="K108" t="s">
         <v>1746</v>
       </c>
-      <c r="L108" t="s">
+      <c r="L108" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M108" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M108" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
       <c r="S108" t="s">
         <v>846</v>
       </c>
@@ -13950,12 +14338,15 @@
       <c r="K109" t="s">
         <v>1313</v>
       </c>
-      <c r="L109" t="s">
+      <c r="L109" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M109" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M109" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
       <c r="S109" t="s">
         <v>852</v>
       </c>
@@ -14003,12 +14394,15 @@
       <c r="K110" t="s">
         <v>534</v>
       </c>
-      <c r="L110" t="s">
+      <c r="L110" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M110" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M110" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
       <c r="S110" t="s">
         <v>860</v>
       </c>
@@ -14056,12 +14450,15 @@
       <c r="K111" t="s">
         <v>2348</v>
       </c>
-      <c r="L111" t="s">
+      <c r="L111" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M111" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M111" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
       <c r="S111" t="s">
         <v>868</v>
       </c>
@@ -14109,18 +14506,19 @@
       <c r="K112" t="s">
         <v>154</v>
       </c>
-      <c r="L112" t="s">
+      <c r="L112" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="M112" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N112" t="s">
-        <v>2545</v>
-      </c>
-      <c r="O112" t="s">
-        <v>2577</v>
-      </c>
+      <c r="M112" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="P112" s="3"/>
       <c r="S112" t="s">
         <v>873</v>
       </c>
@@ -14168,15 +14566,17 @@
       <c r="K113" t="s">
         <v>1678</v>
       </c>
-      <c r="L113" t="s">
+      <c r="L113" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="M113" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N113" t="s">
-        <v>2546</v>
-      </c>
+      <c r="M113" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
       <c r="S113" t="s">
         <v>881</v>
       </c>
@@ -14224,12 +14624,17 @@
       <c r="K114" t="s">
         <v>1878</v>
       </c>
-      <c r="L114" t="s">
+      <c r="L114" s="3" t="s">
         <v>1879</v>
       </c>
-      <c r="M114" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M114" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
       <c r="S114" t="s">
         <v>889</v>
       </c>
@@ -14272,11 +14677,16 @@
         <v>93</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K115" t="s">
         <v>45</v>
       </c>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
       <c r="Q115" t="s">
         <v>95</v>
       </c>
@@ -14298,7 +14708,7 @@
         <v>474</v>
       </c>
       <c r="B116" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="C116" t="s">
         <v>475</v>
@@ -14327,9 +14737,13 @@
       <c r="K116" t="s">
         <v>478</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L116" s="3" t="s">
         <v>479</v>
       </c>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
       <c r="S116" t="s">
         <v>904</v>
       </c>
@@ -14377,6 +14791,11 @@
       <c r="K117" t="s">
         <v>1393</v>
       </c>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
       <c r="Q117" t="s">
         <v>1394</v>
       </c>
@@ -14422,11 +14841,16 @@
         <v>93</v>
       </c>
       <c r="J118" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K118" t="s">
         <v>404</v>
       </c>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
       <c r="S118" t="s">
         <v>917</v>
       </c>
@@ -14469,11 +14893,16 @@
         <v>54</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K119" t="s">
         <v>45</v>
       </c>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
       <c r="Q119" t="s">
         <v>722</v>
       </c>
@@ -14524,6 +14953,11 @@
       <c r="K120" t="s">
         <v>1393</v>
       </c>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
       <c r="Q120" t="s">
         <v>722</v>
       </c>
@@ -14569,11 +15003,16 @@
         <v>54</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K121" t="s">
         <v>45</v>
       </c>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
       <c r="Q121" t="s">
         <v>722</v>
       </c>
@@ -14624,6 +15063,11 @@
       <c r="K122" t="s">
         <v>1393</v>
       </c>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
       <c r="Q122" t="s">
         <v>722</v>
       </c>
@@ -14674,15 +15118,17 @@
       <c r="K123" t="s">
         <v>1515</v>
       </c>
-      <c r="L123" t="s">
+      <c r="L123" s="3" t="s">
         <v>1516</v>
       </c>
-      <c r="M123" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N123" t="s">
-        <v>2545</v>
-      </c>
+      <c r="M123" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
       <c r="S123" t="s">
         <v>948</v>
       </c>
@@ -14730,12 +15176,15 @@
       <c r="K124" t="s">
         <v>1671</v>
       </c>
-      <c r="L124" t="s">
+      <c r="L124" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M124" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M124" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
       <c r="S124" t="s">
         <v>954</v>
       </c>
@@ -14783,18 +15232,19 @@
       <c r="K125" t="s">
         <v>215</v>
       </c>
-      <c r="L125" t="s">
+      <c r="L125" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="M125" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N125" t="s">
-        <v>2546</v>
-      </c>
-      <c r="O125" t="s">
-        <v>2577</v>
-      </c>
+      <c r="M125" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N125" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="P125" s="3"/>
       <c r="S125" t="s">
         <v>958</v>
       </c>
@@ -14842,18 +15292,19 @@
       <c r="K126" t="s">
         <v>215</v>
       </c>
-      <c r="L126" t="s">
+      <c r="L126" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="M126" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N126" t="s">
-        <v>2545</v>
-      </c>
-      <c r="O126" t="s">
-        <v>2577</v>
-      </c>
+      <c r="M126" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N126" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="P126" s="3"/>
       <c r="S126" t="s">
         <v>965</v>
       </c>
@@ -14901,6 +15352,11 @@
       <c r="K127" t="s">
         <v>2051</v>
       </c>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
       <c r="Q127" t="s">
         <v>479</v>
       </c>
@@ -14946,11 +15402,16 @@
         <v>198</v>
       </c>
       <c r="J128" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="K128" t="s">
         <v>45</v>
       </c>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
       <c r="Q128" t="s">
         <v>95</v>
       </c>
@@ -15001,6 +15462,11 @@
       <c r="K129" t="s">
         <v>45</v>
       </c>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
       <c r="Q129" t="s">
         <v>708</v>
       </c>
@@ -15046,11 +15512,16 @@
         <v>12</v>
       </c>
       <c r="J130" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K130" t="s">
         <v>25</v>
       </c>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
       <c r="Q130" t="s">
         <v>26</v>
       </c>
@@ -15101,6 +15572,11 @@
       <c r="K131" t="s">
         <v>67</v>
       </c>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
       <c r="S131" t="s">
         <v>1004</v>
       </c>
@@ -15108,7 +15584,7 @@
         <v>1005</v>
       </c>
       <c r="U131" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V131" t="s">
         <v>30</v>
@@ -15148,12 +15624,13 @@
       <c r="K132" t="s">
         <v>37</v>
       </c>
-      <c r="L132" t="s">
+      <c r="L132" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="M132" t="s">
-        <v>2529</v>
-      </c>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
       <c r="S132" t="s">
         <v>1010</v>
       </c>
@@ -15201,9 +15678,13 @@
       <c r="K133" t="s">
         <v>2218</v>
       </c>
-      <c r="L133" t="s">
+      <c r="L133" s="3" t="s">
         <v>479</v>
       </c>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
       <c r="S133" t="s">
         <v>1016</v>
       </c>
@@ -15251,15 +15732,17 @@
       <c r="K134" t="s">
         <v>434</v>
       </c>
-      <c r="L134" t="s">
+      <c r="L134" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="M134" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N134" t="s">
-        <v>2577</v>
-      </c>
+      <c r="M134" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
       <c r="S134" t="s">
         <v>1023</v>
       </c>
@@ -15307,15 +15790,17 @@
       <c r="K135" t="s">
         <v>1635</v>
       </c>
-      <c r="L135" t="s">
+      <c r="L135" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="M135" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N135" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M135" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N135" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
       <c r="S135" t="s">
         <v>1029</v>
       </c>
@@ -15363,6 +15848,11 @@
       <c r="K136" t="s">
         <v>1313</v>
       </c>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
       <c r="S136" t="s">
         <v>1037</v>
       </c>
@@ -15370,7 +15860,7 @@
         <v>1038</v>
       </c>
       <c r="U136" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V136" t="s">
         <v>30</v>
@@ -15407,6 +15897,11 @@
       <c r="K137" t="s">
         <v>534</v>
       </c>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
       <c r="S137" t="s">
         <v>1043</v>
       </c>
@@ -15414,7 +15909,7 @@
         <v>1044</v>
       </c>
       <c r="U137" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V137" t="s">
         <v>30</v>
@@ -15425,7 +15920,7 @@
         <v>467</v>
       </c>
       <c r="B138" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="C138" t="s">
         <v>468</v>
@@ -15454,12 +15949,19 @@
       <c r="K138" t="s">
         <v>471</v>
       </c>
-      <c r="L138" t="s">
+      <c r="L138" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="M138" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M138" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="P138" s="3"/>
       <c r="S138" t="s">
         <v>1048</v>
       </c>
@@ -15507,12 +16009,15 @@
       <c r="K139" t="s">
         <v>1822</v>
       </c>
-      <c r="L139" t="s">
+      <c r="L139" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M139" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M139" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
       <c r="S139" t="s">
         <v>1055</v>
       </c>
@@ -15560,12 +16065,19 @@
       <c r="K140" t="s">
         <v>1829</v>
       </c>
-      <c r="L140" t="s">
+      <c r="L140" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="M140" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M140" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="P140" s="3"/>
       <c r="S140" t="s">
         <v>1062</v>
       </c>
@@ -15613,18 +16125,19 @@
       <c r="K141" t="s">
         <v>1663</v>
       </c>
-      <c r="L141" t="s">
+      <c r="L141" s="3" t="s">
         <v>1664</v>
       </c>
-      <c r="M141" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N141" t="s">
-        <v>2543</v>
-      </c>
-      <c r="O141" t="s">
-        <v>2546</v>
-      </c>
+      <c r="M141" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="P141" s="3"/>
       <c r="S141" t="s">
         <v>1069</v>
       </c>
@@ -15672,15 +16185,17 @@
       <c r="K142" t="s">
         <v>692</v>
       </c>
-      <c r="L142" t="s">
+      <c r="L142" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="M142" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N142" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M142" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
       <c r="S142" t="s">
         <v>1075</v>
       </c>
@@ -15728,15 +16243,17 @@
       <c r="K143" t="s">
         <v>964</v>
       </c>
-      <c r="L143" t="s">
+      <c r="L143" s="3" t="s">
         <v>1508</v>
       </c>
-      <c r="M143" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N143" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M143" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
       <c r="S143" t="s">
         <v>1084</v>
       </c>
@@ -15784,12 +16301,19 @@
       <c r="K144" t="s">
         <v>2286</v>
       </c>
-      <c r="L144" t="s">
+      <c r="L144" s="3" t="s">
         <v>1801</v>
       </c>
-      <c r="M144" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M144" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N144" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="P144" s="3"/>
       <c r="S144" t="s">
         <v>1088</v>
       </c>
@@ -15832,11 +16356,16 @@
         <v>236</v>
       </c>
       <c r="J145" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="K145" t="s">
         <v>272</v>
       </c>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
       <c r="Q145" t="s">
         <v>26</v>
       </c>
@@ -15887,12 +16416,15 @@
       <c r="K146" t="s">
         <v>1540</v>
       </c>
-      <c r="L146" t="s">
+      <c r="L146" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="M146" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M146" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
       <c r="S146" t="s">
         <v>1103</v>
       </c>
@@ -15940,12 +16472,17 @@
       <c r="K147" t="s">
         <v>1976</v>
       </c>
-      <c r="L147" t="s">
+      <c r="L147" s="3" t="s">
         <v>1879</v>
       </c>
-      <c r="M147" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M147" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
       <c r="S147" t="s">
         <v>1109</v>
       </c>
@@ -15993,12 +16530,15 @@
       <c r="K148" t="s">
         <v>1936</v>
       </c>
-      <c r="L148" t="s">
+      <c r="L148" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M148" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M148" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
       <c r="S148" t="s">
         <v>1116</v>
       </c>
@@ -16046,12 +16586,15 @@
       <c r="K149" t="s">
         <v>1416</v>
       </c>
-      <c r="L149" t="s">
+      <c r="L149" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M149" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M149" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
       <c r="S149" t="s">
         <v>1124</v>
       </c>
@@ -16099,12 +16642,19 @@
       <c r="K150" t="s">
         <v>2424</v>
       </c>
-      <c r="L150" t="s">
+      <c r="L150" s="3" t="s">
         <v>1801</v>
       </c>
-      <c r="M150" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M150" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="P150" s="3"/>
       <c r="S150" t="s">
         <v>1129</v>
       </c>
@@ -16152,15 +16702,17 @@
       <c r="K151" t="s">
         <v>1532</v>
       </c>
-      <c r="L151" t="s">
+      <c r="L151" s="3" t="s">
         <v>1533</v>
       </c>
-      <c r="M151" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N151" t="s">
-        <v>2546</v>
-      </c>
+      <c r="M151" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
       <c r="S151" t="s">
         <v>1137</v>
       </c>
@@ -16208,9 +16760,13 @@
       <c r="K152" t="s">
         <v>2440</v>
       </c>
-      <c r="L152" t="s">
+      <c r="L152" s="3" t="s">
         <v>479</v>
       </c>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
       <c r="S152" t="s">
         <v>1145</v>
       </c>
@@ -16258,12 +16814,15 @@
       <c r="K153" t="s">
         <v>298</v>
       </c>
-      <c r="L153" t="s">
+      <c r="L153" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M153" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M153" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
       <c r="S153" t="s">
         <v>1153</v>
       </c>
@@ -16311,15 +16870,17 @@
       <c r="K154" t="s">
         <v>1708</v>
       </c>
-      <c r="L154" t="s">
+      <c r="L154" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="M154" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N154" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M154" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N154" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
       <c r="S154" t="s">
         <v>1157</v>
       </c>
@@ -16367,12 +16928,15 @@
       <c r="K155" t="s">
         <v>67</v>
       </c>
-      <c r="L155" t="s">
+      <c r="L155" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M155" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M155" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
       <c r="S155" t="s">
         <v>1165</v>
       </c>
@@ -16380,7 +16944,7 @@
         <v>1166</v>
       </c>
       <c r="U155" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V155" t="s">
         <v>30</v>
@@ -16420,12 +16984,15 @@
       <c r="K156" t="s">
         <v>987</v>
       </c>
-      <c r="L156" t="s">
+      <c r="L156" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M156" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M156" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
       <c r="S156" t="s">
         <v>1169</v>
       </c>
@@ -16464,6 +17031,11 @@
       <c r="K157" t="s">
         <v>534</v>
       </c>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
       <c r="S157" t="s">
         <v>1178</v>
       </c>
@@ -16471,7 +17043,7 @@
         <v>1179</v>
       </c>
       <c r="U157" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V157" t="s">
         <v>30</v>
@@ -16511,12 +17083,15 @@
       <c r="K158" t="s">
         <v>154</v>
       </c>
-      <c r="L158" t="s">
+      <c r="L158" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M158" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M158" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
       <c r="S158" t="s">
         <v>1184</v>
       </c>
@@ -16564,12 +17139,15 @@
       <c r="K159" t="s">
         <v>471</v>
       </c>
-      <c r="L159" t="s">
+      <c r="L159" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M159" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M159" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
       <c r="S159" t="s">
         <v>1192</v>
       </c>
@@ -16617,12 +17195,15 @@
       <c r="K160" t="s">
         <v>2029</v>
       </c>
-      <c r="L160" t="s">
+      <c r="L160" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M160" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M160" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
       <c r="S160" t="s">
         <v>1200</v>
       </c>
@@ -16670,12 +17251,15 @@
       <c r="K161" t="s">
         <v>1715</v>
       </c>
-      <c r="L161" t="s">
+      <c r="L161" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M161" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M161" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
       <c r="S161" t="s">
         <v>1206</v>
       </c>
@@ -16723,18 +17307,19 @@
       <c r="K162" t="s">
         <v>777</v>
       </c>
-      <c r="L162" t="s">
+      <c r="L162" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="M162" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N162" t="s">
+      <c r="M162" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O162" s="3" t="s">
         <v>2543</v>
       </c>
-      <c r="O162" t="s">
-        <v>2545</v>
-      </c>
+      <c r="P162" s="3"/>
       <c r="S162" t="s">
         <v>1213</v>
       </c>
@@ -16782,12 +17367,19 @@
       <c r="K163" t="s">
         <v>2300</v>
       </c>
-      <c r="L163" t="s">
+      <c r="L163" s="3" t="s">
         <v>1801</v>
       </c>
-      <c r="M163" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M163" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N163" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O163" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="P163" s="3"/>
       <c r="S163" t="s">
         <v>1217</v>
       </c>
@@ -16830,17 +17422,20 @@
         <v>65</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="K164" t="s">
         <v>1094</v>
       </c>
-      <c r="L164" t="s">
+      <c r="L164" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="M164" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M164" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
       <c r="S164" t="s">
         <v>1224</v>
       </c>
@@ -16888,12 +17483,15 @@
       <c r="K165" t="s">
         <v>1152</v>
       </c>
-      <c r="L165" t="s">
+      <c r="L165" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M165" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M165" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
       <c r="S165" t="s">
         <v>1232</v>
       </c>
@@ -16941,12 +17539,15 @@
       <c r="K166" t="s">
         <v>1620</v>
       </c>
-      <c r="L166" t="s">
+      <c r="L166" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M166" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M166" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
       <c r="S166" t="s">
         <v>1240</v>
       </c>
@@ -16994,18 +17595,19 @@
       <c r="K167" t="s">
         <v>1532</v>
       </c>
-      <c r="L167" t="s">
+      <c r="L167" s="3" t="s">
         <v>1487</v>
       </c>
-      <c r="M167" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N167" t="s">
+      <c r="M167" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N167" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O167" s="3" t="s">
         <v>2543</v>
       </c>
-      <c r="O167" t="s">
-        <v>2545</v>
-      </c>
+      <c r="P167" s="3"/>
       <c r="S167" t="s">
         <v>1248</v>
       </c>
@@ -17048,17 +17650,20 @@
         <v>65</v>
       </c>
       <c r="J168" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="K168" t="s">
         <v>364</v>
       </c>
-      <c r="L168" t="s">
+      <c r="L168" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M168" t="s">
-        <v>2540</v>
-      </c>
+      <c r="M168" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
       <c r="S168" t="s">
         <v>1254</v>
       </c>
@@ -17106,18 +17711,19 @@
       <c r="K169" t="s">
         <v>364</v>
       </c>
-      <c r="L169" t="s">
+      <c r="L169" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="M169" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N169" t="s">
-        <v>2577</v>
-      </c>
-      <c r="O169" t="s">
-        <v>2545</v>
-      </c>
+      <c r="M169" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="O169" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="P169" s="3"/>
       <c r="S169" t="s">
         <v>1261</v>
       </c>
@@ -17165,12 +17771,17 @@
       <c r="K170" t="s">
         <v>1816</v>
       </c>
-      <c r="L170" t="s">
+      <c r="L170" s="3" t="s">
         <v>1817</v>
       </c>
-      <c r="M170" t="s">
-        <v>2539</v>
-      </c>
+      <c r="M170" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
       <c r="S170" t="s">
         <v>1267</v>
       </c>
@@ -17218,15 +17829,17 @@
       <c r="K171" t="s">
         <v>2181</v>
       </c>
-      <c r="L171" t="s">
+      <c r="L171" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="M171" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N171" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M171" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N171" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
       <c r="S171" t="s">
         <v>1273</v>
       </c>
@@ -17274,18 +17887,19 @@
       <c r="K172" t="s">
         <v>879</v>
       </c>
-      <c r="L172" t="s">
+      <c r="L172" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="M172" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N172" t="s">
+      <c r="M172" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O172" s="3" t="s">
         <v>2543</v>
       </c>
-      <c r="O172" t="s">
-        <v>2545</v>
-      </c>
+      <c r="P172" s="3"/>
       <c r="S172" t="s">
         <v>1278</v>
       </c>
@@ -17333,12 +17947,15 @@
       <c r="K173" t="s">
         <v>2165</v>
       </c>
-      <c r="L173" t="s">
+      <c r="L173" s="3" t="s">
         <v>2166</v>
       </c>
-      <c r="M173" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M173" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
       <c r="S173" t="s">
         <v>1286</v>
       </c>
@@ -17381,14 +17998,20 @@
         <v>65</v>
       </c>
       <c r="J174" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="K174" t="s">
         <v>1642</v>
       </c>
-      <c r="L174" t="s">
+      <c r="L174" s="3" t="s">
         <v>479</v>
       </c>
+      <c r="M174" s="3" t="s">
+        <v>2580</v>
+      </c>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
       <c r="S174" t="s">
         <v>1292</v>
       </c>
@@ -17436,12 +18059,15 @@
       <c r="K175" t="s">
         <v>1431</v>
       </c>
-      <c r="L175" t="s">
+      <c r="L175" s="3" t="s">
         <v>1432</v>
       </c>
-      <c r="M175" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M175" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
       <c r="S175" t="s">
         <v>1300</v>
       </c>
@@ -17489,12 +18115,15 @@
       <c r="K176" t="s">
         <v>313</v>
       </c>
-      <c r="L176" t="s">
+      <c r="L176" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M176" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M176" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
       <c r="S176" t="s">
         <v>1307</v>
       </c>
@@ -17537,11 +18166,16 @@
         <v>143</v>
       </c>
       <c r="J177" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K177" t="s">
         <v>144</v>
       </c>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
       <c r="Q177" t="s">
         <v>190</v>
       </c>
@@ -17563,7 +18197,7 @@
         <v>461</v>
       </c>
       <c r="B178" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="C178" t="s">
         <v>462</v>
@@ -17592,12 +18226,15 @@
       <c r="K178" t="s">
         <v>465</v>
       </c>
-      <c r="L178" t="s">
+      <c r="L178" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M178" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M178" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
       <c r="S178" t="s">
         <v>1318</v>
       </c>
@@ -17645,18 +18282,19 @@
       <c r="K179" t="s">
         <v>313</v>
       </c>
-      <c r="L179" t="s">
+      <c r="L179" s="3" t="s">
         <v>1501</v>
       </c>
-      <c r="M179" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N179" t="s">
-        <v>2546</v>
-      </c>
-      <c r="O179" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M179" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N179" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O179" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="P179" s="3"/>
       <c r="S179" t="s">
         <v>1322</v>
       </c>
@@ -17704,15 +18342,17 @@
       <c r="K180" t="s">
         <v>1035</v>
       </c>
-      <c r="L180" t="s">
+      <c r="L180" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="M180" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N180" t="s">
-        <v>2546</v>
-      </c>
+      <c r="M180" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N180" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
       <c r="S180" t="s">
         <v>1329</v>
       </c>
@@ -17760,12 +18400,15 @@
       <c r="K181" t="s">
         <v>313</v>
       </c>
-      <c r="L181" t="s">
+      <c r="L181" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M181" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M181" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N181" s="3"/>
+      <c r="O181" s="3"/>
+      <c r="P181" s="3"/>
       <c r="S181" t="s">
         <v>1336</v>
       </c>
@@ -17813,6 +18456,11 @@
       <c r="K182" t="s">
         <v>1313</v>
       </c>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
       <c r="S182" t="s">
         <v>1344</v>
       </c>
@@ -17860,6 +18508,11 @@
       <c r="K183" t="s">
         <v>1313</v>
       </c>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
       <c r="S183" t="s">
         <v>1353</v>
       </c>
@@ -17867,7 +18520,7 @@
         <v>1354</v>
       </c>
       <c r="U183" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V183" t="s">
         <v>30</v>
@@ -17907,15 +18560,17 @@
       <c r="K184" t="s">
         <v>2059</v>
       </c>
-      <c r="L184" t="s">
+      <c r="L184" s="3" t="s">
         <v>1903</v>
       </c>
-      <c r="M184" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N184" t="s">
-        <v>2539</v>
-      </c>
+      <c r="M184" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N184" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O184" s="3"/>
+      <c r="P184" s="3"/>
       <c r="S184" t="s">
         <v>1359</v>
       </c>
@@ -17963,15 +18618,17 @@
       <c r="K185" t="s">
         <v>434</v>
       </c>
-      <c r="L185" t="s">
+      <c r="L185" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="M185" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N185" t="s">
-        <v>2546</v>
-      </c>
+      <c r="M185" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N185" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3"/>
       <c r="S185" t="s">
         <v>1365</v>
       </c>
@@ -18019,9 +18676,13 @@
       <c r="K186" t="s">
         <v>1853</v>
       </c>
-      <c r="L186" t="s">
+      <c r="L186" s="3" t="s">
         <v>479</v>
       </c>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
       <c r="S186" t="s">
         <v>1373</v>
       </c>
@@ -18069,6 +18730,11 @@
       <c r="K187" t="s">
         <v>2043</v>
       </c>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
+      <c r="P187" s="3"/>
       <c r="Q187" t="s">
         <v>2143</v>
       </c>
@@ -18119,12 +18785,15 @@
       <c r="K188" t="s">
         <v>434</v>
       </c>
-      <c r="L188" t="s">
+      <c r="L188" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M188" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M188" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
+      <c r="P188" s="3"/>
       <c r="S188" t="s">
         <v>1388</v>
       </c>
@@ -18172,12 +18841,15 @@
       <c r="K189" t="s">
         <v>1082</v>
       </c>
-      <c r="L189" t="s">
+      <c r="L189" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M189" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M189" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N189" s="3"/>
+      <c r="O189" s="3"/>
+      <c r="P189" s="3"/>
       <c r="S189" t="s">
         <v>1395</v>
       </c>
@@ -18225,12 +18897,15 @@
       <c r="K190" t="s">
         <v>1769</v>
       </c>
-      <c r="L190" t="s">
+      <c r="L190" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M190" t="s">
-        <v>2540</v>
-      </c>
+      <c r="M190" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="N190" s="3"/>
+      <c r="O190" s="3"/>
+      <c r="P190" s="3"/>
       <c r="S190" t="s">
         <v>1403</v>
       </c>
@@ -18278,9 +18953,13 @@
       <c r="K191" t="s">
         <v>2256</v>
       </c>
-      <c r="L191" t="s">
+      <c r="L191" s="3" t="s">
         <v>479</v>
       </c>
+      <c r="M191" s="3"/>
+      <c r="N191" s="3"/>
+      <c r="O191" s="3"/>
+      <c r="P191" s="3"/>
       <c r="S191" t="s">
         <v>1410</v>
       </c>
@@ -18328,12 +19007,15 @@
       <c r="K192" t="s">
         <v>67</v>
       </c>
-      <c r="L192" t="s">
+      <c r="L192" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M192" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M192" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N192" s="3"/>
+      <c r="O192" s="3"/>
+      <c r="P192" s="3"/>
       <c r="S192" t="s">
         <v>1417</v>
       </c>
@@ -18381,6 +19063,11 @@
       <c r="K193" t="s">
         <v>67</v>
       </c>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
       <c r="Q193" t="s">
         <v>26</v>
       </c>
@@ -18431,12 +19118,15 @@
       <c r="K194" t="s">
         <v>434</v>
       </c>
-      <c r="L194" t="s">
+      <c r="L194" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="M194" t="s">
-        <v>2579</v>
-      </c>
+      <c r="M194" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
+      <c r="P194" s="3"/>
       <c r="S194" t="s">
         <v>1433</v>
       </c>
@@ -18484,12 +19174,15 @@
       <c r="K195" t="s">
         <v>822</v>
       </c>
-      <c r="L195" t="s">
+      <c r="L195" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M195" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M195" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
       <c r="S195" t="s">
         <v>1439</v>
       </c>
@@ -18532,11 +19225,16 @@
         <v>236</v>
       </c>
       <c r="J196" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K196" t="s">
         <v>1393</v>
       </c>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
       <c r="Q196" t="s">
         <v>708</v>
       </c>
@@ -18587,12 +19285,15 @@
       <c r="K197" t="s">
         <v>1909</v>
       </c>
-      <c r="L197" t="s">
+      <c r="L197" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M197" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M197" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
       <c r="S197" t="s">
         <v>1452</v>
       </c>
@@ -18640,12 +19341,15 @@
       <c r="K198" t="s">
         <v>1909</v>
       </c>
-      <c r="L198" t="s">
+      <c r="L198" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M198" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M198" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+      <c r="P198" s="3"/>
       <c r="S198" t="s">
         <v>1460</v>
       </c>
@@ -18688,11 +19392,16 @@
         <v>236</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K199" t="s">
         <v>851</v>
       </c>
+      <c r="L199" s="3"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
       <c r="Q199" t="s">
         <v>56</v>
       </c>
@@ -18743,15 +19452,17 @@
       <c r="K200" t="s">
         <v>798</v>
       </c>
-      <c r="L200" t="s">
+      <c r="L200" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="M200" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N200" t="s">
-        <v>2577</v>
-      </c>
+      <c r="M200" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N200" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="O200" s="3"/>
+      <c r="P200" s="3"/>
       <c r="S200" t="s">
         <v>1473</v>
       </c>
@@ -18799,12 +19510,15 @@
       <c r="K201" t="s">
         <v>125</v>
       </c>
-      <c r="L201" t="s">
+      <c r="L201" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M201" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M201" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+      <c r="P201" s="3"/>
       <c r="S201" t="s">
         <v>1480</v>
       </c>
@@ -18852,6 +19566,11 @@
       <c r="K202" t="s">
         <v>238</v>
       </c>
+      <c r="L202" s="3"/>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
+      <c r="P202" s="3"/>
       <c r="Q202" t="s">
         <v>239</v>
       </c>
@@ -18902,12 +19621,15 @@
       <c r="K203" t="s">
         <v>1524</v>
       </c>
-      <c r="L203" t="s">
+      <c r="L203" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M203" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M203" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
       <c r="S203" t="s">
         <v>1494</v>
       </c>
@@ -18926,7 +19648,7 @@
         <v>2376</v>
       </c>
       <c r="B204" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="C204" t="s">
         <v>2378</v>
@@ -18955,12 +19677,15 @@
       <c r="K204" t="s">
         <v>2380</v>
       </c>
-      <c r="L204" t="s">
+      <c r="L204" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M204" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M204" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+      <c r="P204" s="3"/>
       <c r="S204" t="s">
         <v>1502</v>
       </c>
@@ -19008,12 +19733,15 @@
       <c r="K205" t="s">
         <v>2380</v>
       </c>
-      <c r="L205" t="s">
+      <c r="L205" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M205" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M205" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="3"/>
       <c r="S205" t="s">
         <v>1509</v>
       </c>
@@ -19056,11 +19784,16 @@
         <v>143</v>
       </c>
       <c r="J206" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K206" t="s">
         <v>741</v>
       </c>
+      <c r="L206" s="3"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
       <c r="Q206" t="s">
         <v>479</v>
       </c>
@@ -19111,12 +19844,15 @@
       <c r="K207" t="s">
         <v>390</v>
       </c>
-      <c r="L207" t="s">
+      <c r="L207" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M207" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M207" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+      <c r="P207" s="3"/>
       <c r="S207" t="s">
         <v>1525</v>
       </c>
@@ -19164,15 +19900,17 @@
       <c r="K208" t="s">
         <v>364</v>
       </c>
-      <c r="L208" t="s">
+      <c r="L208" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="M208" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N208" t="s">
-        <v>2546</v>
-      </c>
+      <c r="M208" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N208" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O208" s="3"/>
+      <c r="P208" s="3"/>
       <c r="S208" t="s">
         <v>1534</v>
       </c>
@@ -19220,6 +19958,11 @@
       <c r="K209" t="s">
         <v>45</v>
       </c>
+      <c r="L209" s="3"/>
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
       <c r="Q209" t="s">
         <v>95</v>
       </c>
@@ -19241,7 +19984,7 @@
         <v>454</v>
       </c>
       <c r="B210" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="C210" t="s">
         <v>455</v>
@@ -19270,12 +20013,15 @@
       <c r="K210" t="s">
         <v>458</v>
       </c>
-      <c r="L210" t="s">
+      <c r="L210" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M210" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M210" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N210" s="3"/>
+      <c r="O210" s="3"/>
+      <c r="P210" s="3"/>
       <c r="S210" t="s">
         <v>1547</v>
       </c>
@@ -19323,12 +20069,15 @@
       <c r="K211" t="s">
         <v>1760</v>
       </c>
-      <c r="L211" t="s">
+      <c r="L211" s="3" t="s">
         <v>1761</v>
       </c>
-      <c r="M211" t="s">
-        <v>2539</v>
-      </c>
+      <c r="M211" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+      <c r="P211" s="3"/>
       <c r="S211" t="s">
         <v>1553</v>
       </c>
@@ -19376,12 +20125,17 @@
       <c r="K212" t="s">
         <v>1922</v>
       </c>
-      <c r="L212" t="s">
+      <c r="L212" s="3" t="s">
         <v>1895</v>
       </c>
-      <c r="M212" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M212" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N212" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O212" s="3"/>
+      <c r="P212" s="3"/>
       <c r="S212" t="s">
         <v>1560</v>
       </c>
@@ -19429,12 +20183,17 @@
       <c r="K213" t="s">
         <v>2403</v>
       </c>
-      <c r="L213" t="s">
+      <c r="L213" s="3" t="s">
         <v>2404</v>
       </c>
-      <c r="M213" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M213" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N213" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O213" s="3"/>
+      <c r="P213" s="3"/>
       <c r="S213" t="s">
         <v>1569</v>
       </c>
@@ -19482,6 +20241,11 @@
       <c r="K214" t="s">
         <v>1472</v>
       </c>
+      <c r="L214" s="3"/>
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
+      <c r="P214" s="3"/>
       <c r="Q214" t="s">
         <v>2052</v>
       </c>
@@ -19532,12 +20296,15 @@
       <c r="K215" t="s">
         <v>2521</v>
       </c>
-      <c r="L215" t="s">
+      <c r="L215" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M215" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M215" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+      <c r="P215" s="3"/>
       <c r="S215" t="s">
         <v>1584</v>
       </c>
@@ -19580,11 +20347,16 @@
         <v>236</v>
       </c>
       <c r="J216" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K216" t="s">
         <v>45</v>
       </c>
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="P216" s="3"/>
       <c r="Q216" t="s">
         <v>95</v>
       </c>
@@ -19635,15 +20407,17 @@
       <c r="K217" t="s">
         <v>1991</v>
       </c>
-      <c r="L217" t="s">
+      <c r="L217" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="M217" t="s">
-        <v>2582</v>
-      </c>
-      <c r="N217" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M217" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O217" s="3"/>
+      <c r="P217" s="3"/>
       <c r="S217" t="s">
         <v>1599</v>
       </c>
@@ -19691,15 +20465,17 @@
       <c r="K218" t="s">
         <v>964</v>
       </c>
-      <c r="L218" t="s">
+      <c r="L218" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="M218" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N218" t="s">
-        <v>2577</v>
-      </c>
+      <c r="M218" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N218" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="O218" s="3"/>
+      <c r="P218" s="3"/>
       <c r="S218" t="s">
         <v>1607</v>
       </c>
@@ -19747,15 +20523,17 @@
       <c r="K219" t="s">
         <v>37</v>
       </c>
-      <c r="L219" t="s">
+      <c r="L219" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="M219" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N219" t="s">
-        <v>2528</v>
-      </c>
+      <c r="M219" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N219" s="3" t="s">
+        <v>2579</v>
+      </c>
+      <c r="O219" s="3"/>
+      <c r="P219" s="3"/>
       <c r="S219" t="s">
         <v>1614</v>
       </c>
@@ -19803,12 +20581,19 @@
       <c r="K220" t="s">
         <v>1606</v>
       </c>
-      <c r="L220" t="s">
+      <c r="L220" s="3" t="s">
         <v>1801</v>
       </c>
-      <c r="M220" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M220" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N220" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O220" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="P220" s="3"/>
       <c r="S220" t="s">
         <v>1621</v>
       </c>
@@ -19856,12 +20641,15 @@
       <c r="K221" t="s">
         <v>1591</v>
       </c>
-      <c r="L221" t="s">
+      <c r="L221" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M221" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M221" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3"/>
       <c r="S221" t="s">
         <v>1628</v>
       </c>
@@ -19906,6 +20694,11 @@
       <c r="K222" t="s">
         <v>215</v>
       </c>
+      <c r="L222" s="3"/>
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+      <c r="P222" s="3"/>
       <c r="S222" t="s">
         <v>1636</v>
       </c>
@@ -19913,7 +20706,7 @@
         <v>1637</v>
       </c>
       <c r="U222" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V222" t="s">
         <v>30</v>
@@ -19953,6 +20746,11 @@
       <c r="K223" t="s">
         <v>851</v>
       </c>
+      <c r="L223" s="3"/>
+      <c r="M223" s="3"/>
+      <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
+      <c r="P223" s="3"/>
       <c r="Q223" t="s">
         <v>95</v>
       </c>
@@ -20003,12 +20801,15 @@
       <c r="K224" t="s">
         <v>1983</v>
       </c>
-      <c r="L224" t="s">
+      <c r="L224" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M224" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M224" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
+      <c r="P224" s="3"/>
       <c r="S224" t="s">
         <v>1648</v>
       </c>
@@ -20053,6 +20854,11 @@
       <c r="K225" t="s">
         <v>215</v>
       </c>
+      <c r="L225" s="3"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+      <c r="P225" s="3"/>
       <c r="S225" t="s">
         <v>1654</v>
       </c>
@@ -20060,7 +20866,7 @@
         <v>1655</v>
       </c>
       <c r="U225" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V225" t="s">
         <v>30</v>
@@ -20100,12 +20906,15 @@
       <c r="K226" t="s">
         <v>77</v>
       </c>
-      <c r="L226" t="s">
+      <c r="L226" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="M226" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M226" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3"/>
+      <c r="P226" s="3"/>
       <c r="S226" t="s">
         <v>1658</v>
       </c>
@@ -20148,11 +20957,16 @@
         <v>236</v>
       </c>
       <c r="J227" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K227" t="s">
         <v>45</v>
       </c>
+      <c r="L227" s="3"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+      <c r="P227" s="3"/>
       <c r="Q227" t="s">
         <v>95</v>
       </c>
@@ -20203,12 +21017,15 @@
       <c r="K228" t="s">
         <v>2411</v>
       </c>
-      <c r="L228" t="s">
+      <c r="L228" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="M228" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M228" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3"/>
       <c r="S228" t="s">
         <v>1672</v>
       </c>
@@ -20256,12 +21073,15 @@
       <c r="K229" t="s">
         <v>1598</v>
       </c>
-      <c r="L229" t="s">
+      <c r="L229" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M229" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M229" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
+      <c r="P229" s="3"/>
       <c r="S229" t="s">
         <v>1679</v>
       </c>
@@ -20309,12 +21129,19 @@
       <c r="K230" t="s">
         <v>1844</v>
       </c>
-      <c r="L230" t="s">
+      <c r="L230" s="3" t="s">
         <v>1845</v>
       </c>
-      <c r="M230" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M230" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N230" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O230" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="P230" s="3"/>
       <c r="S230" t="s">
         <v>1686</v>
       </c>
@@ -20362,12 +21189,15 @@
       <c r="K231" t="s">
         <v>154</v>
       </c>
-      <c r="L231" t="s">
+      <c r="L231" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M231" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M231" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N231" s="3"/>
+      <c r="O231" s="3"/>
+      <c r="P231" s="3"/>
       <c r="S231" t="s">
         <v>1694</v>
       </c>
@@ -20415,12 +21245,15 @@
       <c r="K232" t="s">
         <v>2196</v>
       </c>
-      <c r="L232" t="s">
+      <c r="L232" s="3" t="s">
         <v>2319</v>
       </c>
-      <c r="M232" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M232" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="P232" s="3"/>
       <c r="S232" t="s">
         <v>1701</v>
       </c>
@@ -20468,18 +21301,19 @@
       <c r="K233" t="s">
         <v>987</v>
       </c>
-      <c r="L233" t="s">
+      <c r="L233" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="M233" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N233" t="s">
-        <v>2577</v>
-      </c>
-      <c r="O233" t="s">
-        <v>2545</v>
-      </c>
+      <c r="M233" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N233" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="O233" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="P233" s="3"/>
       <c r="Q233" t="s">
         <v>479</v>
       </c>
@@ -20530,15 +21364,17 @@
       <c r="K234" t="s">
         <v>2432</v>
       </c>
-      <c r="L234" t="s">
+      <c r="L234" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="M234" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N234" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M234" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N234" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
       <c r="S234" t="s">
         <v>1716</v>
       </c>
@@ -20586,15 +21422,17 @@
       <c r="K235" t="s">
         <v>2470</v>
       </c>
-      <c r="L235" t="s">
+      <c r="L235" s="3" t="s">
         <v>1903</v>
       </c>
-      <c r="M235" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N235" t="s">
-        <v>2539</v>
-      </c>
+      <c r="M235" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N235" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3"/>
       <c r="S235" t="s">
         <v>1724</v>
       </c>
@@ -20642,15 +21480,17 @@
       <c r="K236" t="s">
         <v>434</v>
       </c>
-      <c r="L236" t="s">
+      <c r="L236" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="M236" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N236" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M236" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N236" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O236" s="3"/>
+      <c r="P236" s="3"/>
       <c r="S236" t="s">
         <v>1731</v>
       </c>
@@ -20698,12 +21538,15 @@
       <c r="K237" t="s">
         <v>1730</v>
       </c>
-      <c r="L237" t="s">
+      <c r="L237" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M237" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M237" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="P237" s="3"/>
       <c r="S237" t="s">
         <v>1739</v>
       </c>
@@ -20746,11 +21589,16 @@
         <v>65</v>
       </c>
       <c r="J238" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="K238" t="s">
         <v>67</v>
       </c>
+      <c r="L238" s="3"/>
+      <c r="M238" s="3"/>
+      <c r="N238" s="3"/>
+      <c r="O238" s="3"/>
+      <c r="P238" s="3"/>
       <c r="S238" t="s">
         <v>1747</v>
       </c>
@@ -20758,7 +21606,7 @@
         <v>1748</v>
       </c>
       <c r="U238" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V238" t="s">
         <v>30</v>
@@ -20798,6 +21646,11 @@
       <c r="K239" t="s">
         <v>2051</v>
       </c>
+      <c r="L239" s="3"/>
+      <c r="M239" s="3"/>
+      <c r="N239" s="3"/>
+      <c r="O239" s="3"/>
+      <c r="P239" s="3"/>
       <c r="Q239" t="s">
         <v>2052</v>
       </c>
@@ -20848,12 +21701,15 @@
       <c r="K240" t="s">
         <v>37</v>
       </c>
-      <c r="L240" t="s">
+      <c r="L240" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M240" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M240" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3"/>
       <c r="S240" t="s">
         <v>1762</v>
       </c>
@@ -20901,12 +21757,15 @@
       <c r="K241" t="s">
         <v>1199</v>
       </c>
-      <c r="L241" t="s">
+      <c r="L241" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M241" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M241" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="3"/>
       <c r="S241" t="s">
         <v>1770</v>
       </c>
@@ -20954,15 +21813,17 @@
       <c r="K242" t="s">
         <v>1343</v>
       </c>
-      <c r="L242" t="s">
+      <c r="L242" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="M242" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N242" t="s">
-        <v>2546</v>
-      </c>
+      <c r="M242" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N242" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O242" s="3"/>
+      <c r="P242" s="3"/>
       <c r="S242" t="s">
         <v>1778</v>
       </c>
@@ -21010,12 +21871,15 @@
       <c r="K243" t="s">
         <v>1123</v>
       </c>
-      <c r="L243" t="s">
+      <c r="L243" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M243" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M243" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
+      <c r="P243" s="3"/>
       <c r="S243" t="s">
         <v>1787</v>
       </c>
@@ -21063,9 +21927,13 @@
       <c r="K244" t="s">
         <v>627</v>
       </c>
-      <c r="L244" t="s">
+      <c r="L244" s="3" t="s">
         <v>479</v>
       </c>
+      <c r="M244" s="3"/>
+      <c r="N244" s="3"/>
+      <c r="O244" s="3"/>
+      <c r="P244" s="3"/>
       <c r="S244" t="s">
         <v>1794</v>
       </c>
@@ -21113,12 +21981,15 @@
       <c r="K245" t="s">
         <v>434</v>
       </c>
-      <c r="L245" t="s">
+      <c r="L245" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M245" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M245" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N245" s="3"/>
+      <c r="O245" s="3"/>
+      <c r="P245" s="3"/>
       <c r="S245" t="s">
         <v>1802</v>
       </c>
@@ -21166,6 +22037,11 @@
       <c r="K246" t="s">
         <v>67</v>
       </c>
+      <c r="L246" s="3"/>
+      <c r="M246" s="3"/>
+      <c r="N246" s="3"/>
+      <c r="O246" s="3"/>
+      <c r="P246" s="3"/>
       <c r="S246" t="s">
         <v>1810</v>
       </c>
@@ -21213,12 +22089,15 @@
       <c r="K247" t="s">
         <v>2218</v>
       </c>
-      <c r="L247" t="s">
+      <c r="L247" s="3" t="s">
         <v>2448</v>
       </c>
-      <c r="M247" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M247" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="P247" s="3"/>
       <c r="S247" t="s">
         <v>1818</v>
       </c>
@@ -21266,6 +22145,11 @@
       <c r="K248" t="s">
         <v>45</v>
       </c>
+      <c r="L248" s="3"/>
+      <c r="M248" s="3"/>
+      <c r="N248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="P248" s="3"/>
       <c r="Q248" t="s">
         <v>790</v>
       </c>
@@ -21316,9 +22200,13 @@
       <c r="K249" t="s">
         <v>972</v>
       </c>
-      <c r="L249" t="s">
+      <c r="L249" s="3" t="s">
         <v>479</v>
       </c>
+      <c r="M249" s="3"/>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3"/>
       <c r="S249" t="s">
         <v>1830</v>
       </c>
@@ -21361,11 +22249,16 @@
         <v>236</v>
       </c>
       <c r="J250" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K250" t="s">
         <v>2227</v>
       </c>
+      <c r="L250" s="3"/>
+      <c r="M250" s="3"/>
+      <c r="N250" s="3"/>
+      <c r="O250" s="3"/>
+      <c r="P250" s="3"/>
       <c r="Q250" t="s">
         <v>479</v>
       </c>
@@ -21416,12 +22309,15 @@
       <c r="K251" t="s">
         <v>1285</v>
       </c>
-      <c r="L251" t="s">
+      <c r="L251" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M251" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M251" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
+      <c r="P251" s="3"/>
       <c r="S251" t="s">
         <v>1846</v>
       </c>
@@ -21469,12 +22365,19 @@
       <c r="K252" t="s">
         <v>2263</v>
       </c>
-      <c r="L252" t="s">
+      <c r="L252" s="3" t="s">
         <v>1801</v>
       </c>
-      <c r="M252" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M252" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N252" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O252" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="P252" s="3"/>
       <c r="S252" t="s">
         <v>1854</v>
       </c>
@@ -21522,6 +22425,11 @@
       <c r="K253" t="s">
         <v>1313</v>
       </c>
+      <c r="L253" s="3"/>
+      <c r="M253" s="3"/>
+      <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
+      <c r="P253" s="3"/>
       <c r="S253" t="s">
         <v>1861</v>
       </c>
@@ -21569,6 +22477,11 @@
       <c r="K254" t="s">
         <v>1313</v>
       </c>
+      <c r="L254" s="3"/>
+      <c r="M254" s="3"/>
+      <c r="N254" s="3"/>
+      <c r="O254" s="3"/>
+      <c r="P254" s="3"/>
       <c r="S254" t="s">
         <v>1868</v>
       </c>
@@ -21616,6 +22529,11 @@
       <c r="K255" t="s">
         <v>67</v>
       </c>
+      <c r="L255" s="3"/>
+      <c r="M255" s="3"/>
+      <c r="N255" s="3"/>
+      <c r="O255" s="3"/>
+      <c r="P255" s="3"/>
       <c r="S255" t="s">
         <v>1872</v>
       </c>
@@ -21623,7 +22541,7 @@
         <v>1873</v>
       </c>
       <c r="U255" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V255" t="s">
         <v>30</v>
@@ -21663,6 +22581,11 @@
       <c r="K256" t="s">
         <v>1313</v>
       </c>
+      <c r="L256" s="3"/>
+      <c r="M256" s="3"/>
+      <c r="N256" s="3"/>
+      <c r="O256" s="3"/>
+      <c r="P256" s="3"/>
       <c r="S256" t="s">
         <v>1880</v>
       </c>
@@ -21710,12 +22633,15 @@
       <c r="K257" t="s">
         <v>2455</v>
       </c>
-      <c r="L257" t="s">
+      <c r="L257" s="3" t="s">
         <v>2456</v>
       </c>
-      <c r="M257" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M257" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N257" s="3"/>
+      <c r="O257" s="3"/>
+      <c r="P257" s="3"/>
       <c r="S257" t="s">
         <v>1888</v>
       </c>
@@ -21763,12 +22689,15 @@
       <c r="K258" t="s">
         <v>2014</v>
       </c>
-      <c r="L258" t="s">
+      <c r="L258" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M258" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M258" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
+      <c r="P258" s="3"/>
       <c r="S258" t="s">
         <v>1896</v>
       </c>
@@ -21811,11 +22740,16 @@
         <v>12</v>
       </c>
       <c r="J259" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K259" t="s">
         <v>85</v>
       </c>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3"/>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
+      <c r="P259" s="3"/>
       <c r="Q259" t="s">
         <v>26</v>
       </c>
@@ -21861,11 +22795,16 @@
         <v>54</v>
       </c>
       <c r="J260" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K260" t="s">
         <v>715</v>
       </c>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
+      <c r="N260" s="3"/>
+      <c r="O260" s="3"/>
+      <c r="P260" s="3"/>
       <c r="Q260" t="s">
         <v>26</v>
       </c>
@@ -21911,11 +22850,16 @@
         <v>236</v>
       </c>
       <c r="J261" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K261" t="s">
         <v>45</v>
       </c>
+      <c r="L261" s="3"/>
+      <c r="M261" s="3"/>
+      <c r="N261" s="3"/>
+      <c r="O261" s="3"/>
+      <c r="P261" s="3"/>
       <c r="Q261" t="s">
         <v>426</v>
       </c>
@@ -21966,6 +22910,11 @@
       <c r="K262" t="s">
         <v>67</v>
       </c>
+      <c r="L262" s="3"/>
+      <c r="M262" s="3"/>
+      <c r="N262" s="3"/>
+      <c r="O262" s="3"/>
+      <c r="P262" s="3"/>
       <c r="S262" t="s">
         <v>1923</v>
       </c>
@@ -21973,7 +22922,7 @@
         <v>1924</v>
       </c>
       <c r="U262" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V262" t="s">
         <v>30</v>
@@ -22013,15 +22962,17 @@
       <c r="K263" t="s">
         <v>1379</v>
       </c>
-      <c r="L263" t="s">
+      <c r="L263" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="M263" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N263" t="s">
-        <v>2546</v>
-      </c>
+      <c r="M263" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N263" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O263" s="3"/>
+      <c r="P263" s="3"/>
       <c r="S263" t="s">
         <v>1930</v>
       </c>
@@ -22069,15 +23020,17 @@
       <c r="K264" t="s">
         <v>2150</v>
       </c>
-      <c r="L264" t="s">
+      <c r="L264" s="3" t="s">
         <v>2151</v>
       </c>
-      <c r="M264" t="s">
-        <v>2547</v>
-      </c>
-      <c r="N264" s="2" t="s">
-        <v>2540</v>
-      </c>
+      <c r="M264" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="N264" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="O264" s="3"/>
+      <c r="P264" s="3"/>
       <c r="S264" t="s">
         <v>1937</v>
       </c>
@@ -22125,12 +23078,15 @@
       <c r="K265" t="s">
         <v>2210</v>
       </c>
-      <c r="L265" t="s">
+      <c r="L265" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M265" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M265" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N265" s="3"/>
+      <c r="O265" s="3"/>
+      <c r="P265" s="3"/>
       <c r="S265" t="s">
         <v>1945</v>
       </c>
@@ -22178,12 +23134,15 @@
       <c r="K266" t="s">
         <v>2066</v>
       </c>
-      <c r="L266" t="s">
+      <c r="L266" s="3" t="s">
         <v>2067</v>
       </c>
-      <c r="M266" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M266" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N266" s="3"/>
+      <c r="O266" s="3"/>
+      <c r="P266" s="3"/>
       <c r="S266" t="s">
         <v>1952</v>
       </c>
@@ -22226,11 +23185,16 @@
         <v>1653</v>
       </c>
       <c r="J267" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K267" t="s">
         <v>1723</v>
       </c>
+      <c r="L267" s="3"/>
+      <c r="M267" s="3"/>
+      <c r="N267" s="3"/>
+      <c r="O267" s="3"/>
+      <c r="P267" s="3"/>
       <c r="Q267" t="s">
         <v>1352</v>
       </c>
@@ -22281,12 +23245,19 @@
       <c r="K268" t="s">
         <v>2021</v>
       </c>
-      <c r="L268" t="s">
+      <c r="L268" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="M268" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M268" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N268" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="O268" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="P268" s="3"/>
       <c r="S268" t="s">
         <v>1960</v>
       </c>
@@ -22334,12 +23305,15 @@
       <c r="K269" t="s">
         <v>215</v>
       </c>
-      <c r="L269" t="s">
+      <c r="L269" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="M269" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M269" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N269" s="3"/>
+      <c r="O269" s="3"/>
+      <c r="P269" s="3"/>
       <c r="S269" t="s">
         <v>1968</v>
       </c>
@@ -22387,6 +23361,11 @@
       <c r="K270" t="s">
         <v>37</v>
       </c>
+      <c r="L270" s="3"/>
+      <c r="M270" s="3"/>
+      <c r="N270" s="3"/>
+      <c r="O270" s="3"/>
+      <c r="P270" s="3"/>
       <c r="Q270" t="s">
         <v>95</v>
       </c>
@@ -22437,12 +23416,15 @@
       <c r="K271" t="s">
         <v>2270</v>
       </c>
-      <c r="L271" t="s">
+      <c r="L271" s="3" t="s">
         <v>2067</v>
       </c>
-      <c r="M271" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M271" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N271" s="3"/>
+      <c r="O271" s="3"/>
+      <c r="P271" s="3"/>
       <c r="S271" t="s">
         <v>1984</v>
       </c>
@@ -22490,12 +23472,15 @@
       <c r="K272" t="s">
         <v>1003</v>
       </c>
-      <c r="L272" t="s">
+      <c r="L272" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M272" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M272" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N272" s="3"/>
+      <c r="O272" s="3"/>
+      <c r="P272" s="3"/>
       <c r="S272" t="s">
         <v>1992</v>
       </c>
@@ -22543,12 +23528,19 @@
       <c r="K273" t="s">
         <v>2373</v>
       </c>
-      <c r="L273" t="s">
+      <c r="L273" s="3" t="s">
         <v>1801</v>
       </c>
-      <c r="M273" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M273" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N273" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O273" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="P273" s="3"/>
       <c r="S273" t="s">
         <v>1999</v>
       </c>
@@ -22596,6 +23588,11 @@
       <c r="K274" t="s">
         <v>2115</v>
       </c>
+      <c r="L274" s="3"/>
+      <c r="M274" s="3"/>
+      <c r="N274" s="3"/>
+      <c r="O274" s="3"/>
+      <c r="P274" s="3"/>
       <c r="Q274" t="s">
         <v>479</v>
       </c>
@@ -22646,15 +23643,17 @@
       <c r="K275" t="s">
         <v>287</v>
       </c>
-      <c r="L275" t="s">
+      <c r="L275" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="M275" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N275" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M275" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N275" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O275" s="3"/>
+      <c r="P275" s="3"/>
       <c r="S275" t="s">
         <v>2015</v>
       </c>
@@ -22702,15 +23701,17 @@
       <c r="K276" t="s">
         <v>493</v>
       </c>
-      <c r="L276" t="s">
+      <c r="L276" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="M276" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N276" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M276" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N276" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O276" s="3"/>
+      <c r="P276" s="3"/>
       <c r="S276" t="s">
         <v>2022</v>
       </c>
@@ -22753,17 +23754,20 @@
         <v>65</v>
       </c>
       <c r="J277" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="K277" t="s">
         <v>525</v>
       </c>
-      <c r="L277" t="s">
+      <c r="L277" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="M277" t="s">
-        <v>526</v>
-      </c>
+      <c r="M277" s="3" t="s">
+        <v>2580</v>
+      </c>
+      <c r="N277" s="3"/>
+      <c r="O277" s="3"/>
+      <c r="P277" s="3"/>
       <c r="S277" t="s">
         <v>2030</v>
       </c>
@@ -22811,12 +23815,15 @@
       <c r="K278" t="s">
         <v>513</v>
       </c>
-      <c r="L278" t="s">
+      <c r="L278" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M278" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M278" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N278" s="3"/>
+      <c r="O278" s="3"/>
+      <c r="P278" s="3"/>
       <c r="S278" t="s">
         <v>2036</v>
       </c>
@@ -22864,6 +23871,11 @@
       <c r="K279" t="s">
         <v>1472</v>
       </c>
+      <c r="L279" s="3"/>
+      <c r="M279" s="3"/>
+      <c r="N279" s="3"/>
+      <c r="O279" s="3"/>
+      <c r="P279" s="3"/>
       <c r="Q279" t="s">
         <v>1693</v>
       </c>
@@ -22914,12 +23926,15 @@
       <c r="K280" t="s">
         <v>1836</v>
       </c>
-      <c r="L280" t="s">
+      <c r="L280" s="3" t="s">
         <v>1837</v>
       </c>
-      <c r="M280" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M280" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N280" s="3"/>
+      <c r="O280" s="3"/>
+      <c r="P280" s="3"/>
       <c r="S280" t="s">
         <v>2053</v>
       </c>
@@ -22967,12 +23982,15 @@
       <c r="K281" t="s">
         <v>1967</v>
       </c>
-      <c r="L281" t="s">
+      <c r="L281" s="3" t="s">
         <v>1895</v>
       </c>
-      <c r="M281" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M281" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N281" s="3"/>
+      <c r="O281" s="3"/>
+      <c r="P281" s="3"/>
       <c r="S281" t="s">
         <v>2060</v>
       </c>
@@ -23020,12 +24038,15 @@
       <c r="K282" t="s">
         <v>1372</v>
       </c>
-      <c r="L282" t="s">
+      <c r="L282" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M282" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M282" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N282" s="3"/>
+      <c r="O282" s="3"/>
+      <c r="P282" s="3"/>
       <c r="S282" t="s">
         <v>2068</v>
       </c>
@@ -23044,7 +24065,7 @@
         <v>481</v>
       </c>
       <c r="B283" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="C283" t="s">
         <v>482</v>
@@ -23073,12 +24094,15 @@
       <c r="K283" t="s">
         <v>485</v>
       </c>
-      <c r="L283" t="s">
+      <c r="L283" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="M283" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M283" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N283" s="3"/>
+      <c r="O283" s="3"/>
+      <c r="P283" s="3"/>
       <c r="S283" t="s">
         <v>2075</v>
       </c>
@@ -23126,15 +24150,17 @@
       <c r="K284" t="s">
         <v>1223</v>
       </c>
-      <c r="L284" t="s">
+      <c r="L284" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="M284" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N284" t="s">
-        <v>2577</v>
-      </c>
+      <c r="M284" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N284" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="O284" s="3"/>
+      <c r="P284" s="3"/>
       <c r="S284" t="s">
         <v>2082</v>
       </c>
@@ -23182,12 +24208,15 @@
       <c r="K285" t="s">
         <v>1606</v>
       </c>
-      <c r="L285" t="s">
+      <c r="L285" s="3" t="s">
         <v>1793</v>
       </c>
-      <c r="M285" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M285" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N285" s="3"/>
+      <c r="O285" s="3"/>
+      <c r="P285" s="3"/>
       <c r="S285" t="s">
         <v>2090</v>
       </c>
@@ -23235,12 +24264,15 @@
       <c r="K286" t="s">
         <v>2478</v>
       </c>
-      <c r="L286" t="s">
+      <c r="L286" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M286" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M286" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N286" s="3"/>
+      <c r="O286" s="3"/>
+      <c r="P286" s="3"/>
       <c r="S286" t="s">
         <v>2096</v>
       </c>
@@ -23288,6 +24320,11 @@
       <c r="K287" t="s">
         <v>1472</v>
       </c>
+      <c r="L287" s="3"/>
+      <c r="M287" s="3"/>
+      <c r="N287" s="3"/>
+      <c r="O287" s="3"/>
+      <c r="P287" s="3"/>
       <c r="Q287" t="s">
         <v>479</v>
       </c>
@@ -23338,6 +24375,11 @@
       <c r="K288" t="s">
         <v>1472</v>
       </c>
+      <c r="L288" s="3"/>
+      <c r="M288" s="3"/>
+      <c r="N288" s="3"/>
+      <c r="O288" s="3"/>
+      <c r="P288" s="3"/>
       <c r="Q288" t="s">
         <v>479</v>
       </c>
@@ -23388,12 +24430,15 @@
       <c r="K289" t="s">
         <v>506</v>
       </c>
-      <c r="L289" t="s">
+      <c r="L289" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M289" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M289" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N289" s="3"/>
+      <c r="O289" s="3"/>
+      <c r="P289" s="3"/>
       <c r="S289" t="s">
         <v>2116</v>
       </c>
@@ -23438,6 +24483,11 @@
       <c r="K290" t="s">
         <v>215</v>
       </c>
+      <c r="L290" s="3"/>
+      <c r="M290" s="3"/>
+      <c r="N290" s="3"/>
+      <c r="O290" s="3"/>
+      <c r="P290" s="3"/>
       <c r="S290" t="s">
         <v>2124</v>
       </c>
@@ -23445,7 +24495,7 @@
         <v>445</v>
       </c>
       <c r="U290" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="V290" t="s">
         <v>446</v>
@@ -23480,11 +24530,16 @@
         <v>54</v>
       </c>
       <c r="J291" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K291" t="s">
         <v>144</v>
       </c>
+      <c r="L291" s="3"/>
+      <c r="M291" s="3"/>
+      <c r="N291" s="3"/>
+      <c r="O291" s="3"/>
+      <c r="P291" s="3"/>
       <c r="Q291" t="s">
         <v>382</v>
       </c>
@@ -23535,12 +24590,17 @@
       <c r="K292" t="s">
         <v>1998</v>
       </c>
-      <c r="L292" t="s">
+      <c r="L292" s="3" t="s">
         <v>1879</v>
       </c>
-      <c r="M292" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M292" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N292" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O292" s="3"/>
+      <c r="P292" s="3"/>
       <c r="S292" t="s">
         <v>2137</v>
       </c>
@@ -23583,11 +24643,16 @@
         <v>236</v>
       </c>
       <c r="J293" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K293" t="s">
         <v>1351</v>
       </c>
+      <c r="L293" s="3"/>
+      <c r="M293" s="3"/>
+      <c r="N293" s="3"/>
+      <c r="O293" s="3"/>
+      <c r="P293" s="3"/>
       <c r="Q293" t="s">
         <v>1352</v>
       </c>
@@ -23638,6 +24703,11 @@
       <c r="K294" t="s">
         <v>37</v>
       </c>
+      <c r="L294" s="3"/>
+      <c r="M294" s="3"/>
+      <c r="N294" s="3"/>
+      <c r="O294" s="3"/>
+      <c r="P294" s="3"/>
       <c r="Q294" t="s">
         <v>26</v>
       </c>
@@ -23683,11 +24753,16 @@
         <v>54</v>
       </c>
       <c r="J295" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="K295" t="s">
         <v>45</v>
       </c>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
+      <c r="P295" s="3"/>
       <c r="Q295" t="s">
         <v>95</v>
       </c>
@@ -23738,12 +24813,17 @@
       <c r="K296" t="s">
         <v>2278</v>
       </c>
-      <c r="L296" t="s">
+      <c r="L296" s="3" t="s">
         <v>1837</v>
       </c>
-      <c r="M296" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M296" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N296" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="O296" s="3"/>
+      <c r="P296" s="3"/>
       <c r="S296" t="s">
         <v>2167</v>
       </c>
@@ -23791,12 +24871,19 @@
       <c r="K297" t="s">
         <v>2327</v>
       </c>
-      <c r="L297" t="s">
+      <c r="L297" s="3" t="s">
         <v>2328</v>
       </c>
-      <c r="M297" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M297" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N297" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O297" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="P297" s="3"/>
       <c r="S297" t="s">
         <v>2175</v>
       </c>
@@ -23844,12 +24931,15 @@
       <c r="K298" t="s">
         <v>1247</v>
       </c>
-      <c r="L298" t="s">
+      <c r="L298" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M298" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M298" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N298" s="3"/>
+      <c r="O298" s="3"/>
+      <c r="P298" s="3"/>
       <c r="S298" t="s">
         <v>2182</v>
       </c>
@@ -23892,11 +24982,16 @@
         <v>12</v>
       </c>
       <c r="J299" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="K299" t="s">
         <v>844</v>
       </c>
+      <c r="L299" s="3"/>
+      <c r="M299" s="3"/>
+      <c r="N299" s="3"/>
+      <c r="O299" s="3"/>
+      <c r="P299" s="3"/>
       <c r="Q299" t="s">
         <v>845</v>
       </c>
@@ -23942,11 +25037,16 @@
         <v>12</v>
       </c>
       <c r="J300" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K300" t="s">
         <v>2029</v>
       </c>
+      <c r="L300" s="3"/>
+      <c r="M300" s="3"/>
+      <c r="N300" s="3"/>
+      <c r="O300" s="3"/>
+      <c r="P300" s="3"/>
       <c r="Q300" t="s">
         <v>2035</v>
       </c>
@@ -23997,12 +25097,13 @@
       <c r="K301" t="s">
         <v>77</v>
       </c>
-      <c r="L301" t="s">
+      <c r="L301" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M301" t="s">
-        <v>2529</v>
-      </c>
+      <c r="M301" s="3"/>
+      <c r="N301" s="3"/>
+      <c r="O301" s="3"/>
+      <c r="P301" s="3"/>
       <c r="S301" t="s">
         <v>2203</v>
       </c>
@@ -24050,15 +25151,17 @@
       <c r="K302" t="s">
         <v>2158</v>
       </c>
-      <c r="L302" t="s">
+      <c r="L302" s="3" t="s">
         <v>1903</v>
       </c>
-      <c r="M302" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N302" t="s">
-        <v>2539</v>
-      </c>
+      <c r="M302" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N302" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O302" s="3"/>
+      <c r="P302" s="3"/>
       <c r="S302" t="s">
         <v>2211</v>
       </c>
@@ -24106,12 +25209,15 @@
       <c r="K303" t="s">
         <v>2493</v>
       </c>
-      <c r="L303" t="s">
+      <c r="L303" s="3" t="s">
         <v>1761</v>
       </c>
-      <c r="M303" t="s">
-        <v>2539</v>
-      </c>
+      <c r="M303" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N303" s="3"/>
+      <c r="O303" s="3"/>
+      <c r="P303" s="3"/>
       <c r="S303" t="s">
         <v>2220</v>
       </c>
@@ -24159,9 +25265,13 @@
       <c r="K304" t="s">
         <v>434</v>
       </c>
-      <c r="L304" t="s">
+      <c r="L304" s="3" t="s">
         <v>479</v>
       </c>
+      <c r="M304" s="3"/>
+      <c r="N304" s="3"/>
+      <c r="O304" s="3"/>
+      <c r="P304" s="3"/>
       <c r="S304" t="s">
         <v>2228</v>
       </c>
@@ -24209,18 +25319,19 @@
       <c r="K305" t="s">
         <v>2500</v>
       </c>
-      <c r="L305" t="s">
+      <c r="L305" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="M305" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N305" s="2" t="s">
-        <v>2540</v>
-      </c>
-      <c r="O305" s="2" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M305" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N305" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="O305" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="P305" s="3"/>
       <c r="S305" s="2" t="s">
         <v>2501</v>
       </c>
@@ -24268,15 +25379,17 @@
       <c r="K306" t="s">
         <v>569</v>
       </c>
-      <c r="L306" t="s">
+      <c r="L306" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="M306" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N306" t="s">
-        <v>2545</v>
-      </c>
+      <c r="M306" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N306" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="O306" s="3"/>
+      <c r="P306" s="3"/>
       <c r="S306" t="s">
         <v>2242</v>
       </c>
@@ -24319,11 +25432,16 @@
         <v>236</v>
       </c>
       <c r="J307" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K307" t="s">
         <v>45</v>
       </c>
+      <c r="L307" s="3"/>
+      <c r="M307" s="3"/>
+      <c r="N307" s="3"/>
+      <c r="O307" s="3"/>
+      <c r="P307" s="3"/>
       <c r="Q307" t="s">
         <v>56</v>
       </c>
@@ -24369,11 +25487,16 @@
         <v>236</v>
       </c>
       <c r="J308" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K308" t="s">
         <v>144</v>
       </c>
+      <c r="L308" s="3"/>
+      <c r="M308" s="3"/>
+      <c r="N308" s="3"/>
+      <c r="O308" s="3"/>
+      <c r="P308" s="3"/>
       <c r="Q308" t="s">
         <v>479</v>
       </c>
@@ -24424,15 +25547,17 @@
       <c r="K309" t="s">
         <v>1082</v>
       </c>
-      <c r="L309" t="s">
+      <c r="L309" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="M309" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N309" t="s">
-        <v>2577</v>
-      </c>
+      <c r="M309" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N309" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="O309" s="3"/>
+      <c r="P309" s="3"/>
       <c r="S309" t="s">
         <v>2264</v>
       </c>
@@ -24451,7 +25576,7 @@
         <v>1947</v>
       </c>
       <c r="B310" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="C310" t="s">
         <v>1949</v>
@@ -24480,12 +25605,19 @@
       <c r="K310" t="s">
         <v>1951</v>
       </c>
-      <c r="L310" t="s">
+      <c r="L310" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="M310" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M310" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N310" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="O310" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="P310" s="3"/>
       <c r="S310" t="s">
         <v>2271</v>
       </c>
@@ -24533,12 +25665,19 @@
       <c r="K311" t="s">
         <v>1951</v>
       </c>
-      <c r="L311" t="s">
+      <c r="L311" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="M311" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M311" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N311" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="O311" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="P311" s="3"/>
       <c r="S311" t="s">
         <v>2279</v>
       </c>
@@ -24586,12 +25725,15 @@
       <c r="K312" t="s">
         <v>1809</v>
       </c>
-      <c r="L312" t="s">
+      <c r="L312" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M312" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M312" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N312" s="3"/>
+      <c r="O312" s="3"/>
+      <c r="P312" s="3"/>
       <c r="S312" t="s">
         <v>2287</v>
       </c>
@@ -24639,15 +25781,17 @@
       <c r="K313" t="s">
         <v>1568</v>
       </c>
-      <c r="L313" t="s">
+      <c r="L313" s="3" t="s">
         <v>1459</v>
       </c>
-      <c r="M313" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N313" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M313" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N313" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O313" s="3"/>
+      <c r="P313" s="3"/>
       <c r="S313" t="s">
         <v>2293</v>
       </c>
@@ -24695,6 +25839,11 @@
       <c r="K314" t="s">
         <v>45</v>
       </c>
+      <c r="L314" s="3"/>
+      <c r="M314" s="3"/>
+      <c r="N314" s="3"/>
+      <c r="O314" s="3"/>
+      <c r="P314" s="3"/>
       <c r="Q314" t="s">
         <v>678</v>
       </c>
@@ -24740,17 +25889,20 @@
         <v>65</v>
       </c>
       <c r="J315" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="K315" t="s">
         <v>253</v>
       </c>
-      <c r="L315" t="s">
+      <c r="L315" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M315" t="s">
-        <v>2540</v>
-      </c>
+      <c r="M315" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="N315" s="3"/>
+      <c r="O315" s="3"/>
+      <c r="P315" s="3"/>
       <c r="S315" t="s">
         <v>2307</v>
       </c>
@@ -24798,15 +25950,17 @@
       <c r="K316" t="s">
         <v>1230</v>
       </c>
-      <c r="L316" t="s">
+      <c r="L316" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="M316" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N316" t="s">
-        <v>2546</v>
-      </c>
+      <c r="M316" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N316" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O316" s="3"/>
+      <c r="P316" s="3"/>
       <c r="S316" t="s">
         <v>2314</v>
       </c>
@@ -24854,12 +26008,15 @@
       <c r="K317" t="s">
         <v>2123</v>
       </c>
-      <c r="L317" t="s">
+      <c r="L317" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M317" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M317" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N317" s="3"/>
+      <c r="O317" s="3"/>
+      <c r="P317" s="3"/>
       <c r="S317" t="s">
         <v>2320</v>
       </c>
@@ -24907,12 +26064,15 @@
       <c r="K318" t="s">
         <v>867</v>
       </c>
-      <c r="L318" t="s">
+      <c r="L318" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M318" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M318" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N318" s="3"/>
+      <c r="O318" s="3"/>
+      <c r="P318" s="3"/>
       <c r="S318" t="s">
         <v>2329</v>
       </c>
@@ -24960,12 +26120,15 @@
       <c r="K319" t="s">
         <v>2514</v>
       </c>
-      <c r="L319" t="s">
+      <c r="L319" s="3" t="s">
         <v>1761</v>
       </c>
-      <c r="M319" t="s">
-        <v>2539</v>
-      </c>
+      <c r="M319" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N319" s="3"/>
+      <c r="O319" s="3"/>
+      <c r="P319" s="3"/>
       <c r="S319" t="s">
         <v>2336</v>
       </c>
@@ -25013,12 +26176,15 @@
       <c r="K320" t="s">
         <v>2006</v>
       </c>
-      <c r="L320" t="s">
+      <c r="L320" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M320" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M320" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N320" s="3"/>
+      <c r="O320" s="3"/>
+      <c r="P320" s="3"/>
       <c r="S320" t="s">
         <v>2342</v>
       </c>
@@ -25066,15 +26232,17 @@
       <c r="K321" t="s">
         <v>2074</v>
       </c>
-      <c r="L321" t="s">
+      <c r="L321" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="M321" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N321" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M321" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N321" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O321" s="3"/>
+      <c r="P321" s="3"/>
       <c r="S321" t="s">
         <v>2349</v>
       </c>
@@ -25122,18 +26290,19 @@
       <c r="K322" t="s">
         <v>972</v>
       </c>
-      <c r="L322" t="s">
+      <c r="L322" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="M322" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N322" t="s">
+      <c r="M322" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N322" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O322" s="3" t="s">
         <v>2543</v>
       </c>
-      <c r="O322" t="s">
-        <v>2545</v>
-      </c>
+      <c r="P322" s="3"/>
       <c r="S322" t="s">
         <v>2355</v>
       </c>
@@ -25181,6 +26350,11 @@
       <c r="K323" t="s">
         <v>1737</v>
       </c>
+      <c r="L323" s="3"/>
+      <c r="M323" s="3"/>
+      <c r="N323" s="3"/>
+      <c r="O323" s="3"/>
+      <c r="P323" s="3"/>
       <c r="Q323" t="s">
         <v>1738</v>
       </c>
@@ -25231,6 +26405,11 @@
       <c r="K324" t="s">
         <v>45</v>
       </c>
+      <c r="L324" s="3"/>
+      <c r="M324" s="3"/>
+      <c r="N324" s="3"/>
+      <c r="O324" s="3"/>
+      <c r="P324" s="3"/>
       <c r="Q324" t="s">
         <v>418</v>
       </c>
@@ -25281,6 +26460,11 @@
       <c r="K325" t="s">
         <v>45</v>
       </c>
+      <c r="L325" s="3"/>
+      <c r="M325" s="3"/>
+      <c r="N325" s="3"/>
+      <c r="O325" s="3"/>
+      <c r="P325" s="3"/>
       <c r="Q325" t="s">
         <v>418</v>
       </c>
@@ -25331,12 +26515,15 @@
       <c r="K326" t="s">
         <v>586</v>
       </c>
-      <c r="L326" t="s">
+      <c r="L326" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M326" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M326" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N326" s="3"/>
+      <c r="O326" s="3"/>
+      <c r="P326" s="3"/>
       <c r="S326" t="s">
         <v>2381</v>
       </c>
@@ -25384,12 +26571,15 @@
       <c r="K327" t="s">
         <v>390</v>
       </c>
-      <c r="L327" t="s">
+      <c r="L327" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="M327" t="s">
-        <v>2576</v>
-      </c>
+      <c r="M327" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N327" s="3"/>
+      <c r="O327" s="3"/>
+      <c r="P327" s="3"/>
       <c r="S327" t="s">
         <v>2381</v>
       </c>
@@ -25437,15 +26627,17 @@
       <c r="K328" t="s">
         <v>323</v>
       </c>
-      <c r="L328" t="s">
+      <c r="L328" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="M328" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N328" t="s">
-        <v>2580</v>
-      </c>
+      <c r="M328" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N328" s="3" t="s">
+        <v>2581</v>
+      </c>
+      <c r="O328" s="3"/>
+      <c r="P328" s="3"/>
       <c r="S328" t="s">
         <v>2389</v>
       </c>
@@ -25493,12 +26685,15 @@
       <c r="K329" t="s">
         <v>340</v>
       </c>
-      <c r="L329" t="s">
+      <c r="L329" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M329" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M329" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N329" s="3"/>
+      <c r="O329" s="3"/>
+      <c r="P329" s="3"/>
       <c r="S329" t="s">
         <v>2396</v>
       </c>
@@ -25546,12 +26741,15 @@
       <c r="K330" t="s">
         <v>125</v>
       </c>
-      <c r="L330" t="s">
+      <c r="L330" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="M330" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M330" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N330" s="3"/>
+      <c r="O330" s="3"/>
+      <c r="P330" s="3"/>
       <c r="S330" t="s">
         <v>2405</v>
       </c>
@@ -25599,6 +26797,11 @@
       <c r="K331" t="s">
         <v>1472</v>
       </c>
+      <c r="L331" s="3"/>
+      <c r="M331" s="3"/>
+      <c r="N331" s="3"/>
+      <c r="O331" s="3"/>
+      <c r="P331" s="3"/>
       <c r="Q331" t="s">
         <v>54</v>
       </c>
@@ -25649,6 +26852,11 @@
       <c r="K332" t="s">
         <v>2051</v>
       </c>
+      <c r="L332" s="3"/>
+      <c r="M332" s="3"/>
+      <c r="N332" s="3"/>
+      <c r="O332" s="3"/>
+      <c r="P332" s="3"/>
       <c r="Q332" t="s">
         <v>479</v>
       </c>
@@ -25694,11 +26902,16 @@
         <v>12</v>
       </c>
       <c r="J333" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="K333" t="s">
         <v>37</v>
       </c>
+      <c r="L333" s="3"/>
+      <c r="M333" s="3"/>
+      <c r="N333" s="3"/>
+      <c r="O333" s="3"/>
+      <c r="P333" s="3"/>
       <c r="Q333" t="s">
         <v>26</v>
       </c>
@@ -25749,6 +26962,11 @@
       <c r="K334" t="s">
         <v>45</v>
       </c>
+      <c r="L334" s="3"/>
+      <c r="M334" s="3"/>
+      <c r="N334" s="3"/>
+      <c r="O334" s="3"/>
+      <c r="P334" s="3"/>
       <c r="Q334" t="s">
         <v>418</v>
       </c>
@@ -25794,11 +27012,16 @@
         <v>198</v>
       </c>
       <c r="J335" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K335" t="s">
         <v>1358</v>
       </c>
+      <c r="L335" s="3"/>
+      <c r="M335" s="3"/>
+      <c r="N335" s="3"/>
+      <c r="O335" s="3"/>
+      <c r="P335" s="3"/>
       <c r="Q335" t="s">
         <v>1352</v>
       </c>
@@ -25849,15 +27072,17 @@
       <c r="K336" t="s">
         <v>964</v>
       </c>
-      <c r="L336" t="s">
+      <c r="L336" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="M336" t="s">
-        <v>2576</v>
-      </c>
-      <c r="N336" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M336" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="N336" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O336" s="3"/>
+      <c r="P336" s="3"/>
       <c r="S336" t="s">
         <v>2449</v>
       </c>
@@ -25905,12 +27130,15 @@
       <c r="K337" t="s">
         <v>1606</v>
       </c>
-      <c r="L337" t="s">
+      <c r="L337" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="M337" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M337" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N337" s="3"/>
+      <c r="O337" s="3"/>
+      <c r="P337" s="3"/>
       <c r="S337" t="s">
         <v>2457</v>
       </c>
@@ -25958,12 +27186,15 @@
       <c r="K338" t="s">
         <v>1176</v>
       </c>
-      <c r="L338" t="s">
+      <c r="L338" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="M338" t="s">
-        <v>2537</v>
-      </c>
+      <c r="M338" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N338" s="3"/>
+      <c r="O338" s="3"/>
+      <c r="P338" s="3"/>
       <c r="S338" t="s">
         <v>2463</v>
       </c>
@@ -26011,6 +27242,11 @@
       <c r="K339" t="s">
         <v>45</v>
       </c>
+      <c r="L339" s="3"/>
+      <c r="M339" s="3"/>
+      <c r="N339" s="3"/>
+      <c r="O339" s="3"/>
+      <c r="P339" s="3"/>
       <c r="Q339" t="s">
         <v>1306</v>
       </c>
@@ -26061,15 +27297,17 @@
       <c r="K340" t="s">
         <v>101</v>
       </c>
-      <c r="L340" t="s">
+      <c r="L340" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M340" t="s">
-        <v>2539</v>
-      </c>
-      <c r="N340" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M340" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N340" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O340" s="3"/>
+      <c r="P340" s="3"/>
       <c r="S340" t="s">
         <v>2479</v>
       </c>
@@ -26112,20 +27350,22 @@
         <v>65</v>
       </c>
       <c r="J341" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="K341" t="s">
         <v>101</v>
       </c>
-      <c r="L341" t="s">
+      <c r="L341" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M341" t="s">
-        <v>2539</v>
-      </c>
-      <c r="N341" t="s">
-        <v>2543</v>
-      </c>
+      <c r="M341" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N341" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O341" s="3"/>
+      <c r="P341" s="3"/>
       <c r="S341" t="s">
         <v>2487</v>
       </c>
@@ -26173,12 +27413,17 @@
       <c r="K342" t="s">
         <v>2240</v>
       </c>
-      <c r="L342" t="s">
+      <c r="L342" s="3" t="s">
         <v>2241</v>
       </c>
-      <c r="M342" t="s">
-        <v>2539</v>
-      </c>
+      <c r="M342" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N342" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="O342" s="3"/>
+      <c r="P342" s="3"/>
       <c r="S342" t="s">
         <v>2494</v>
       </c>
@@ -26226,15 +27471,17 @@
       <c r="K343" t="s">
         <v>922</v>
       </c>
-      <c r="L343" t="s">
+      <c r="L343" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="M343" t="s">
-        <v>2537</v>
-      </c>
-      <c r="N343" t="s">
-        <v>2546</v>
-      </c>
+      <c r="M343" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="N343" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O343" s="3"/>
+      <c r="P343" s="3"/>
       <c r="S343" t="s">
         <v>2501</v>
       </c>
@@ -26282,6 +27529,11 @@
       <c r="K344" t="s">
         <v>45</v>
       </c>
+      <c r="L344" s="3"/>
+      <c r="M344" s="3"/>
+      <c r="N344" s="3"/>
+      <c r="O344" s="3"/>
+      <c r="P344" s="3"/>
       <c r="Q344" t="s">
         <v>56</v>
       </c>
@@ -26351,33 +27603,29 @@
     <hyperlink ref="U2" r:id="rId1" xr:uid="{54DCC596-3E2E-4418-A3AA-04B60FDA51FD}"/>
     <hyperlink ref="S7" r:id="rId2" xr:uid="{4FC1B8C2-966C-4003-A5FB-2D79677A11E6}"/>
     <hyperlink ref="T7" r:id="rId3" xr:uid="{A24CE419-AAD4-4CEC-A001-3E7ECDD2C6AC}"/>
-    <hyperlink ref="N76" r:id="rId4" xr:uid="{9F048892-A4E7-425A-BEBF-E76FF0311B04}"/>
-    <hyperlink ref="N264" r:id="rId5" xr:uid="{D195BC84-C699-4FAF-BFB5-CF6B9D18D9FD}"/>
-    <hyperlink ref="S56" r:id="rId6" xr:uid="{A16D0962-DE24-41B4-AF84-8EB57C7D5F94}"/>
-    <hyperlink ref="J5" r:id="rId7" xr:uid="{237153C3-5CF2-4715-8EDD-5704933EFC17}"/>
-    <hyperlink ref="J199" r:id="rId8" xr:uid="{CB119D67-9C4D-48E2-BB72-849E27B754BB}"/>
-    <hyperlink ref="J52" r:id="rId9" xr:uid="{6C60C01F-D13B-4EA1-AF42-DB600727330F}"/>
-    <hyperlink ref="J51" r:id="rId10" xr:uid="{9BD65708-EC73-4CF0-8F30-56825C94EDB6}"/>
-    <hyperlink ref="J115" r:id="rId11" xr:uid="{F6344839-9674-4218-BAE8-9447888E5A5F}"/>
-    <hyperlink ref="J164" r:id="rId12" xr:uid="{3E79F4E6-7C25-421B-897F-ECB35FF715D6}"/>
-    <hyperlink ref="J326" r:id="rId13" xr:uid="{DE4B8445-A1E6-435B-8214-7CC7854519AD}"/>
-    <hyperlink ref="J142" r:id="rId14" xr:uid="{31D88F1A-0632-4F9C-9633-D6B02319029A}"/>
-    <hyperlink ref="J119" r:id="rId15" xr:uid="{85984733-7170-42F6-880E-A29A8E5DF34F}"/>
-    <hyperlink ref="J121" r:id="rId16" xr:uid="{68C046C5-BA79-4928-8208-CBE8BAA06B08}"/>
-    <hyperlink ref="J82" r:id="rId17" xr:uid="{F6BD1761-3CD7-471D-874C-E75158D238B1}"/>
-    <hyperlink ref="J6" r:id="rId18" xr:uid="{9DC0A4C5-1D66-45D7-9133-E3F9ABE7B510}"/>
-    <hyperlink ref="J50" r:id="rId19" xr:uid="{F496AE53-854C-45FF-A54E-359404151794}"/>
-    <hyperlink ref="J324" r:id="rId20" xr:uid="{936DAF63-0FC4-4B9A-93A7-683F74B45C7C}"/>
-    <hyperlink ref="J209" r:id="rId21" xr:uid="{A1091771-5984-4FC1-A107-06A259E9F0C5}"/>
-    <hyperlink ref="J179" r:id="rId22" xr:uid="{64DA7517-CE56-40D7-A9C3-D47026002402}"/>
-    <hyperlink ref="S9" r:id="rId23" xr:uid="{D645D0AD-13A7-465A-B190-67B94C67453B}"/>
-    <hyperlink ref="S8" r:id="rId24" xr:uid="{D2DCF728-1C7B-4208-B3D3-CC8919F2B935}"/>
-    <hyperlink ref="N305" r:id="rId25" xr:uid="{D6C24F91-B78B-48C5-93CB-D866DF254D1C}"/>
-    <hyperlink ref="O305" r:id="rId26" xr:uid="{E2450FD3-D399-45C2-8AE9-EF71A162CF1A}"/>
-    <hyperlink ref="S305" r:id="rId27" xr:uid="{A18132AA-2004-4B71-B816-3F0FCAB0A67A}"/>
+    <hyperlink ref="S56" r:id="rId4" xr:uid="{A16D0962-DE24-41B4-AF84-8EB57C7D5F94}"/>
+    <hyperlink ref="J5" r:id="rId5" xr:uid="{237153C3-5CF2-4715-8EDD-5704933EFC17}"/>
+    <hyperlink ref="J199" r:id="rId6" xr:uid="{CB119D67-9C4D-48E2-BB72-849E27B754BB}"/>
+    <hyperlink ref="J52" r:id="rId7" xr:uid="{6C60C01F-D13B-4EA1-AF42-DB600727330F}"/>
+    <hyperlink ref="J51" r:id="rId8" xr:uid="{9BD65708-EC73-4CF0-8F30-56825C94EDB6}"/>
+    <hyperlink ref="J115" r:id="rId9" xr:uid="{F6344839-9674-4218-BAE8-9447888E5A5F}"/>
+    <hyperlink ref="J164" r:id="rId10" xr:uid="{3E79F4E6-7C25-421B-897F-ECB35FF715D6}"/>
+    <hyperlink ref="J326" r:id="rId11" xr:uid="{DE4B8445-A1E6-435B-8214-7CC7854519AD}"/>
+    <hyperlink ref="J142" r:id="rId12" xr:uid="{31D88F1A-0632-4F9C-9633-D6B02319029A}"/>
+    <hyperlink ref="J119" r:id="rId13" xr:uid="{85984733-7170-42F6-880E-A29A8E5DF34F}"/>
+    <hyperlink ref="J121" r:id="rId14" xr:uid="{68C046C5-BA79-4928-8208-CBE8BAA06B08}"/>
+    <hyperlink ref="J82" r:id="rId15" xr:uid="{F6BD1761-3CD7-471D-874C-E75158D238B1}"/>
+    <hyperlink ref="J6" r:id="rId16" xr:uid="{9DC0A4C5-1D66-45D7-9133-E3F9ABE7B510}"/>
+    <hyperlink ref="J50" r:id="rId17" xr:uid="{F496AE53-854C-45FF-A54E-359404151794}"/>
+    <hyperlink ref="J324" r:id="rId18" xr:uid="{936DAF63-0FC4-4B9A-93A7-683F74B45C7C}"/>
+    <hyperlink ref="J209" r:id="rId19" xr:uid="{A1091771-5984-4FC1-A107-06A259E9F0C5}"/>
+    <hyperlink ref="J179" r:id="rId20" xr:uid="{64DA7517-CE56-40D7-A9C3-D47026002402}"/>
+    <hyperlink ref="S9" r:id="rId21" xr:uid="{D645D0AD-13A7-465A-B190-67B94C67453B}"/>
+    <hyperlink ref="S8" r:id="rId22" xr:uid="{D2DCF728-1C7B-4208-B3D3-CC8919F2B935}"/>
+    <hyperlink ref="S305" r:id="rId23" xr:uid="{A18132AA-2004-4B71-B816-3F0FCAB0A67A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId28"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -26398,10 +27646,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -26409,7 +27657,7 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -26417,23 +27665,23 @@
         <v>1761</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -26444,7 +27692,7 @@
         <v>1897</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -26455,18 +27703,18 @@
         <v>1881</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1889</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -26474,10 +27722,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="C9" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -26485,10 +27733,10 @@
         <v>403</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -26499,7 +27747,7 @@
         <v>445</v>
       </c>
       <c r="C11" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -26507,10 +27755,10 @@
         <v>252</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -26521,18 +27769,18 @@
         <v>1889</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1905</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -26548,7 +27796,7 @@
         <v>1869</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -26561,10 +27809,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="C18" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FDA_EUA tests/FDAEUAtest_pre_Ontorat.xlsx
+++ b/docs/FDA_EUA tests/FDAEUAtest_pre_Ontorat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linay\ontologies\GitHub\cido\docs\FDA_EUA tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DD1C6A-5076-47F7-B5FA-DE5D8C97C34E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A829F23-4169-434F-A7D3-8D961076AE50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CB072C4-4071-45ED-9E21-A7B6C58CD755}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="2582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="2580">
   <si>
     <t>Company/Organization</t>
   </si>
@@ -7823,9 +7823,6 @@
     <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGG_3043740579</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OGG_30437405791</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://purl.obolibrary.org/obo/OGG_3043740579 </t>
   </si>
   <si>
@@ -7836,9 +7833,6 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OGG_1002697049</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGG_30437405791</t>
   </si>
 </sst>
 </file>
@@ -8231,8 +8225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6338C626-B5C7-4274-B4C3-F95CCA523B46}">
   <dimension ref="A1:V346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E334" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P344"/>
+    <sheetView tabSelected="1" topLeftCell="E42" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8243,6 +8237,7 @@
     <col min="4" max="4" width="26.08984375" customWidth="1"/>
     <col min="5" max="5" width="20.1796875" customWidth="1"/>
     <col min="10" max="10" width="42.453125" customWidth="1"/>
+    <col min="13" max="13" width="21.26953125" customWidth="1"/>
     <col min="19" max="19" width="67.7265625" customWidth="1"/>
     <col min="20" max="20" width="41" customWidth="1"/>
     <col min="21" max="21" width="41.36328125" customWidth="1"/>
@@ -10589,7 +10584,7 @@
         <v>996</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>2544</v>
@@ -10647,7 +10642,7 @@
         <v>656</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -11356,7 +11351,7 @@
         <v>2574</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
@@ -11414,7 +11409,7 @@
         <v>2538</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
@@ -11472,7 +11467,7 @@
         <v>2538</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
@@ -12655,7 +12650,7 @@
         <v>314</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -13441,7 +13436,7 @@
         <v>1576</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="N93" s="3" t="s">
         <v>2541</v>
@@ -18007,7 +18002,7 @@
         <v>479</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
@@ -20530,7 +20525,7 @@
         <v>2574</v>
       </c>
       <c r="N219" s="3" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="O219" s="3"/>
       <c r="P219" s="3"/>
@@ -23763,7 +23758,7 @@
         <v>526</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="N277" s="3"/>
       <c r="O277" s="3"/>
@@ -26634,7 +26629,7 @@
         <v>2535</v>
       </c>
       <c r="N328" s="3" t="s">
-        <v>2581</v>
+        <v>2575</v>
       </c>
       <c r="O328" s="3"/>
       <c r="P328" s="3"/>
